--- a/250414_또래지명_검사_회의_후_논의_및_확인사항.xlsx
+++ b/250414_또래지명_검사_회의_후_논의_및_확인사항.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qndba\peer\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{117A12DC-A676-4E09-9E5B-7B02D6A333CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AAC77E8-5C91-452B-A128-1C96F350F546}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="3" xr2:uid="{B05B94D7-EB60-466C-9832-7E3F9B4E9A61}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" activeTab="3" xr2:uid="{B05B94D7-EB60-466C-9832-7E3F9B4E9A61}"/>
   </bookViews>
   <sheets>
     <sheet name="학생문항" sheetId="1" r:id="rId1"/>
@@ -3173,7 +3173,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4658" uniqueCount="692">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4645" uniqueCount="679">
   <si>
     <t>scale</t>
   </si>
@@ -5138,64 +5138,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>로그인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>교사 문항</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>학생 문항</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>결과보고서</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>* 로그인 시 인적정보를 물고 온다면 생략 가능</t>
-  </si>
-  <si>
-    <t>* 로그인 시 인적정보를 물고 온다면 생략 가능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(교사 인적사항)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(학생 인적사항)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>* 인구학적 정보 확인 필요</t>
-  </si>
-  <si>
-    <t>* 인구학적 정보 확인 필요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>* 교사 자기보고 문항</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>* 교사 학생평가 문항</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>* 학생 자기보고 문항</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>* 문항 분리 및 순서 확인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>* 또래지명 문항 (테이블)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>- 학생평가 모의데이터 : 교사가 학생을 1-5점으로 평가한 데이터 (정규분포)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -5221,18 +5163,6 @@
   </si>
   <si>
     <t>교사 스스로 평가한 지도 역량과 평균치를 비교하는 그래프인 것으로 파악됩니다. 평균치를 산출할 집단이 무엇인지 확인이 필요합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1차 가안으로 검사 실시 관련한 화면 기획을 작성하여 빠른 시일내에 송부해드리겠습니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>* 결과보고서 구성 확인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>* 결과보고서 구성 논의 확인</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -5541,13 +5471,6 @@
     <t>지명척도를 Z점수 기반 수준화로 범위를 통일하는 경우 상대적인 위치를 점수화 하는 것이기 때문에</t>
   </si>
   <si>
-    <t>예를 들어 교사가 대부분 3점, 4점만 줬다면 분표는 편향되어</t>
-  </si>
-  <si>
-    <t>1-5가 고르게 나올 가능성이 매우 높지만, 리커트의 경우 편향되어 나올 가능성이 있습니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>고르게 나온 지명척도 점수와 일치율을 구했을 때 일치율이 왜곡될 수 있습니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -5598,10 +5521,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1명만 모든 지명을 받고, 나머지는 0이고, 학생수가 2명이면 최대 0.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>현장데이터 학급의 학생수가 비슷해서 왜곡이 없을 수 있지만</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -5614,31 +5533,63 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2명이고 극단적인 케이스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20명이고 극단적인 케이스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>학급 학생수로 인해 해석 왜곡이 있을 수 있습니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>지명비율이 [1,0] 인 경우 0.5가 최대이지만</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지명비율이 [1,0,0,,,,,,0] 인 경우 0.22가 최대가 됩니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>비율의 표준편차라서 해당 문제가 발생하기 때문에 횟수로 수정하여 산출한다면</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>해결 가능할것 같습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5명이고 극단적인 케이스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지명비율이 [0.8, 0.2, 0, 0, 0] 인 경우 0.31가 최대이지만</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지명비율이 [0.96, 0.03 ,0,,,,,,0] 인 경우 0.17이 최대가 됩니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30명이고 극단적인 케이스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하원초 6-4반과 송수초 6-2반이 제일 작고 크게 나타났습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비율점수*비율점수 로직이기 때문에</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스케일 자체가 너무 작아서 이를 보완할 방법이 필요해 보입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-5가 고르게 나올 가능성이 매우 높지만, 리커트의 경우 그래프 처럼 아래로 분포되어 있다면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예를 들어 교사가 평가 기준이 높아서 대부분 1점에서 3점만 줬다면 분표는 편향되어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2차안으로 학생 검사 실시에 문장완성 구성을 추가하여 빠른 시일내에 송부해드리겠습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일치율로</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5646,7 +5597,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="44">
+  <fonts count="45">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5983,8 +5934,16 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="20">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6077,12 +6036,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34998626667073579"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -6100,7 +6053,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="61">
+  <borders count="62">
     <border>
       <left/>
       <right/>
@@ -6888,6 +6841,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -6895,7 +6859,7 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="194">
+  <cellXfs count="187">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -7121,65 +7085,26 @@
     <xf numFmtId="0" fontId="13" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="15" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="17" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="19" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="21" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="15" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="17" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="19" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="21" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="22" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="22" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -7193,10 +7118,10 @@
     <xf numFmtId="0" fontId="13" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7396,19 +7321,49 @@
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="17" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="42" fillId="16" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="16" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="18" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="20" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7447,25 +7402,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="16" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="18" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="20" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="61" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="61" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -17672,6 +17613,94 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>76840</xdr:colOff>
+      <xdr:row>230</xdr:row>
+      <xdr:rowOff>102455</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>2891117</xdr:colOff>
+      <xdr:row>244</xdr:row>
+      <xdr:rowOff>126702</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="41" name="그림 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5C90853-6F37-0573-9C8E-3C77A92E57C7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6441781" y="49374720"/>
+          <a:ext cx="5346807" cy="3005011"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>134470</xdr:colOff>
+      <xdr:row>213</xdr:row>
+      <xdr:rowOff>168087</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>2845790</xdr:colOff>
+      <xdr:row>227</xdr:row>
+      <xdr:rowOff>134470</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="40" name="그림 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{961E29BD-BB46-3C8F-7C36-E1AD3A82A4D4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6499411" y="45820852"/>
+          <a:ext cx="5243850" cy="2947147"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>33</xdr:row>
@@ -17697,7 +17726,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
@@ -17823,7 +17852,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -17861,7 +17890,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -17894,7 +17923,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
@@ -18015,7 +18044,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
@@ -18141,7 +18170,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -18174,7 +18203,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
@@ -18300,7 +18329,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -18338,7 +18367,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -18376,7 +18405,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -18409,7 +18438,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -18453,7 +18482,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
@@ -18910,7 +18939,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId15"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -18943,7 +18972,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
@@ -19100,7 +19129,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId15"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId17"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -19133,10 +19162,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId17"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId19"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -19183,10 +19212,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId17"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId19"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -19233,10 +19262,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId19"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId21"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -19286,7 +19315,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId20"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId22"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -19319,10 +19348,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId19"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId21"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -19369,10 +19398,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId22"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId24"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -19489,10 +19518,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId22"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId24"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -19515,15 +19544,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>2179473</xdr:colOff>
+      <xdr:colOff>1950873</xdr:colOff>
       <xdr:row>120</xdr:row>
-      <xdr:rowOff>131289</xdr:rowOff>
+      <xdr:rowOff>126526</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>3135661</xdr:colOff>
+      <xdr:colOff>2907061</xdr:colOff>
       <xdr:row>133</xdr:row>
-      <xdr:rowOff>79273</xdr:rowOff>
+      <xdr:rowOff>74510</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -19539,15 +19568,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11076944" y="26143877"/>
-          <a:ext cx="3951893" cy="2764396"/>
+          <a:off x="10885323" y="25853551"/>
+          <a:ext cx="3956563" cy="2734047"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -19583,94 +19612,6 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6479150" y="42145324"/>
-          <a:ext cx="5253410" cy="2949992"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>99950</xdr:colOff>
-      <xdr:row>213</xdr:row>
-      <xdr:rowOff>156884</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>2823882</xdr:colOff>
-      <xdr:row>227</xdr:row>
-      <xdr:rowOff>100854</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="28" name="그림 27">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1AB3909-1A09-9E5C-B5EE-C9FEF8280FFB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6464891" y="46235472"/>
-          <a:ext cx="5256462" cy="2924734"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>95249</xdr:colOff>
-      <xdr:row>230</xdr:row>
-      <xdr:rowOff>65636</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>2884714</xdr:colOff>
-      <xdr:row>244</xdr:row>
-      <xdr:rowOff>62448</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="32" name="그림 31">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7310332C-47E0-4F62-A3F2-1D6A0FDCBE2D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26"/>
         <a:stretch>
           <a:fillRect/>
@@ -19678,8 +19619,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6531428" y="47391279"/>
-          <a:ext cx="5320393" cy="2854312"/>
+          <a:off x="6479150" y="41932412"/>
+          <a:ext cx="5253410" cy="2949992"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -19728,104 +19669,6 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>29883</xdr:colOff>
-      <xdr:row>136</xdr:row>
-      <xdr:rowOff>171824</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>171824</xdr:colOff>
-      <xdr:row>150</xdr:row>
-      <xdr:rowOff>85712</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="35" name="그림 34">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1E39FBD-0C8A-63A9-FC46-4762CA02A2DE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="23457648" y="29650765"/>
-          <a:ext cx="5371352" cy="3021653"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="C00000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>612588</xdr:colOff>
-      <xdr:row>136</xdr:row>
-      <xdr:rowOff>171824</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>590176</xdr:colOff>
-      <xdr:row>150</xdr:row>
-      <xdr:rowOff>209176</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="36" name="그림 35">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A246631-88D5-FC43-7901-579AE9063596}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="29269764" y="29650765"/>
-          <a:ext cx="5505824" cy="3145117"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="00B0F0"/>
-          </a:solidFill>
-        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -19970,6 +19813,192 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>493060</xdr:colOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>190501</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>168088</xdr:colOff>
+      <xdr:row>150</xdr:row>
+      <xdr:rowOff>86128</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="그림 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CEB7553-0A8C-18DE-3065-81A128DBC096}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="29930913" y="29168913"/>
+          <a:ext cx="5210734" cy="2954833"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>437029</xdr:colOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>190501</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>390554</xdr:colOff>
+      <xdr:row>150</xdr:row>
+      <xdr:rowOff>170401</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="그림 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A298E5DB-C679-951B-4CF0-F0B48700E7B2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="24619323" y="29168913"/>
+          <a:ext cx="5209084" cy="3039106"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>152079</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>52028</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>612321</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>29537</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="그림 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4280D99-7E7D-FE18-44C5-D98F03A36EFF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="40742186" y="28041921"/>
+          <a:ext cx="5222742" cy="2971080"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>64</xdr:col>
+      <xdr:colOff>257736</xdr:colOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>156883</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>72</xdr:col>
+      <xdr:colOff>237770</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>44823</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="그림 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72841F13-5DDB-09A2-C129-7AFB44076B35}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="52040118" y="29135295"/>
+          <a:ext cx="5358858" cy="3160057"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -19977,23 +20006,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>9526</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>33618</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>38978</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>66676</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>439615</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>200497</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="그림 9">
+        <xdr:cNvPr id="63" name="그림 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C8FEE5-C4F8-2CB5-24D2-66449E73FD8C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4FBE4C1-07BC-A633-566C-AD07B5447535}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20009,282 +20038,17 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1400175" y="1895476"/>
-          <a:ext cx="657225" cy="895350"/>
+          <a:off x="707695" y="463940"/>
+          <a:ext cx="6868343" cy="3773692"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
       </xdr:spPr>
     </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>142876</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>187326</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="그림 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B607120E-EBC2-4EB6-A084-5BCEF698535C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="1400175" y="981076"/>
-          <a:ext cx="657225" cy="895350"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="17" name="직선 화살표 연결선 16">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F0C63AF-B961-3612-9B61-71488B4A63D5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4543425" y="1057275"/>
-          <a:ext cx="600075" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="18" name="직선 화살표 연결선 17">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4AA2DE4-88CC-BB5E-6031-7DA86593F028}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7286625" y="1057275"/>
-          <a:ext cx="600075" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="19" name="직선 화살표 연결선 18">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8F5F69C-B661-3E2A-BBED-C35D110E1BEF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4543425" y="2733675"/>
-          <a:ext cx="600075" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="20" name="직선 화살표 연결선 19">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6189BB60-CC52-C817-353D-414BF195EB05}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7286625" y="2733675"/>
-          <a:ext cx="600075" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -20695,20 +20459,20 @@
   <sheetPr>
     <tabColor theme="3" tint="0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1:F103"/>
+  <dimension ref="A1:G103"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.899999999999999"/>
   <cols>
-    <col min="1" max="1" width="6.58203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.83203125" customWidth="1"/>
-    <col min="5" max="5" width="85.58203125" customWidth="1"/>
-    <col min="6" max="6" width="64.08203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.875" customWidth="1"/>
+    <col min="5" max="5" width="85.625" customWidth="1"/>
+    <col min="6" max="6" width="64.125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -20728,7 +20492,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>615</v>
+        <v>597</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -20747,7 +20511,7 @@
       <c r="E2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="112" t="s">
+      <c r="F2" s="99" t="s">
         <v>568</v>
       </c>
     </row>
@@ -20767,28 +20531,28 @@
       <c r="E3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="112" t="s">
+      <c r="F3" s="99" t="s">
         <v>568</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="106" t="s">
+      <c r="A4" s="93" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="106" t="s">
+      <c r="B4" s="93" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="106" t="s">
+      <c r="C4" s="93" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="106" t="s">
+      <c r="D4" s="93" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="106" t="s">
+      <c r="E4" s="93" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="114" t="s">
-        <v>617</v>
+      <c r="F4" s="101" t="s">
+        <v>599</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -20807,7 +20571,7 @@
       <c r="E5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="112" t="s">
+      <c r="F5" s="99" t="s">
         <v>568</v>
       </c>
     </row>
@@ -20827,7 +20591,7 @@
       <c r="E6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="112" t="s">
+      <c r="F6" s="99" t="s">
         <v>568</v>
       </c>
     </row>
@@ -20847,7 +20611,7 @@
       <c r="E7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="112" t="s">
+      <c r="F7" s="99" t="s">
         <v>568</v>
       </c>
     </row>
@@ -20867,7 +20631,7 @@
       <c r="E8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="112" t="s">
+      <c r="F8" s="99" t="s">
         <v>568</v>
       </c>
     </row>
@@ -20887,7 +20651,7 @@
       <c r="E9" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="112" t="s">
+      <c r="F9" s="99" t="s">
         <v>568</v>
       </c>
     </row>
@@ -20902,12 +20666,12 @@
         <v>25</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>611</v>
+        <v>593</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="112" t="s">
+      <c r="F10" s="99" t="s">
         <v>568</v>
       </c>
     </row>
@@ -20927,7 +20691,7 @@
       <c r="E11" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F11" s="112" t="s">
+      <c r="F11" s="99" t="s">
         <v>568</v>
       </c>
     </row>
@@ -20947,7 +20711,7 @@
       <c r="E12" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F12" s="112" t="s">
+      <c r="F12" s="99" t="s">
         <v>568</v>
       </c>
     </row>
@@ -20967,7 +20731,7 @@
       <c r="E13" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F13" s="112" t="s">
+      <c r="F13" s="99" t="s">
         <v>568</v>
       </c>
     </row>
@@ -20987,7 +20751,7 @@
       <c r="E14" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F14" s="112" t="s">
+      <c r="F14" s="99" t="s">
         <v>568</v>
       </c>
     </row>
@@ -21007,7 +20771,7 @@
       <c r="E15" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="F15" s="112" t="s">
+      <c r="F15" s="99" t="s">
         <v>568</v>
       </c>
     </row>
@@ -21027,11 +20791,11 @@
       <c r="E16" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="F16" s="112" t="s">
+      <c r="F16" s="99" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
         <v>175</v>
       </c>
@@ -21047,11 +20811,11 @@
       <c r="E17" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="F17" s="112" t="s">
+      <c r="F17" s="99" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
         <v>178</v>
       </c>
@@ -21067,11 +20831,11 @@
       <c r="E18" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="F18" s="112" t="s">
+      <c r="F18" s="99" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
         <v>181</v>
       </c>
@@ -21087,11 +20851,11 @@
       <c r="E19" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="F19" s="112" t="s">
+      <c r="F19" s="99" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
         <v>184</v>
       </c>
@@ -21107,51 +20871,57 @@
       <c r="E20" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="F20" s="112" t="s">
+      <c r="F20" s="99" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="105" t="s">
-        <v>646</v>
-      </c>
-      <c r="B21" s="105" t="s">
+    <row r="21" spans="1:7">
+      <c r="A21" s="92" t="s">
+        <v>628</v>
+      </c>
+      <c r="B21" s="92" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="105" t="s">
-        <v>648</v>
-      </c>
-      <c r="D21" s="105" t="s">
+      <c r="C21" s="92" t="s">
+        <v>630</v>
+      </c>
+      <c r="D21" s="92" t="s">
         <v>9</v>
       </c>
-      <c r="E21" s="105" t="s">
-        <v>650</v>
-      </c>
-      <c r="F21" s="113" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="105" t="s">
-        <v>647</v>
-      </c>
-      <c r="B22" s="105" t="s">
+      <c r="E21" s="92" t="s">
+        <v>632</v>
+      </c>
+      <c r="F21" s="100" t="s">
+        <v>635</v>
+      </c>
+      <c r="G21" s="185" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="92" t="s">
+        <v>629</v>
+      </c>
+      <c r="B22" s="92" t="s">
         <v>6</v>
       </c>
-      <c r="C22" s="105" t="s">
-        <v>649</v>
-      </c>
-      <c r="D22" s="105" t="s">
+      <c r="C22" s="92" t="s">
+        <v>631</v>
+      </c>
+      <c r="D22" s="92" t="s">
         <v>9</v>
       </c>
-      <c r="E22" s="105" t="s">
-        <v>651</v>
-      </c>
-      <c r="F22" s="113" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="E22" s="92" t="s">
+        <v>633</v>
+      </c>
+      <c r="F22" s="100" t="s">
+        <v>634</v>
+      </c>
+      <c r="G22" s="185" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
         <v>31</v>
       </c>
@@ -21167,11 +20937,11 @@
       <c r="E23" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F23" s="112" t="s">
+      <c r="F23" s="99" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
         <v>33</v>
       </c>
@@ -21187,11 +20957,11 @@
       <c r="E24" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F24" s="112" t="s">
+      <c r="F24" s="99" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
         <v>35</v>
       </c>
@@ -21207,11 +20977,11 @@
       <c r="E25" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F25" s="112" t="s">
+      <c r="F25" s="99" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
         <v>38</v>
       </c>
@@ -21227,11 +20997,11 @@
       <c r="E26" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F26" s="112" t="s">
+      <c r="F26" s="99" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
         <v>40</v>
       </c>
@@ -21247,11 +21017,11 @@
       <c r="E27" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F27" s="112" t="s">
+      <c r="F27" s="99" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
         <v>42</v>
       </c>
@@ -21267,11 +21037,11 @@
       <c r="E28" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F28" s="112" t="s">
+      <c r="F28" s="99" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
         <v>55</v>
       </c>
@@ -21287,11 +21057,11 @@
       <c r="E29" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F29" s="112" t="s">
+      <c r="F29" s="99" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
         <v>57</v>
       </c>
@@ -21307,11 +21077,11 @@
       <c r="E30" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F30" s="112" t="s">
+      <c r="F30" s="99" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
         <v>60</v>
       </c>
@@ -21327,11 +21097,11 @@
       <c r="E31" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F31" s="112" t="s">
+      <c r="F31" s="99" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
         <v>62</v>
       </c>
@@ -21347,7 +21117,7 @@
       <c r="E32" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F32" s="112" t="s">
+      <c r="F32" s="99" t="s">
         <v>568</v>
       </c>
     </row>
@@ -21367,7 +21137,7 @@
       <c r="E33" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F33" s="112" t="s">
+      <c r="F33" s="99" t="s">
         <v>568</v>
       </c>
     </row>
@@ -21387,7 +21157,7 @@
       <c r="E34" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="F34" s="112" t="s">
+      <c r="F34" s="99" t="s">
         <v>568</v>
       </c>
     </row>
@@ -21407,7 +21177,7 @@
       <c r="E35" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="F35" s="112" t="s">
+      <c r="F35" s="99" t="s">
         <v>568</v>
       </c>
     </row>
@@ -21427,7 +21197,7 @@
       <c r="E36" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F36" s="112" t="s">
+      <c r="F36" s="99" t="s">
         <v>568</v>
       </c>
     </row>
@@ -21447,7 +21217,7 @@
       <c r="E37" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F37" s="112" t="s">
+      <c r="F37" s="99" t="s">
         <v>568</v>
       </c>
     </row>
@@ -21467,7 +21237,7 @@
       <c r="E38" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="F38" s="112" t="s">
+      <c r="F38" s="99" t="s">
         <v>568</v>
       </c>
     </row>
@@ -21487,7 +21257,7 @@
       <c r="E39" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F39" s="112" t="s">
+      <c r="F39" s="99" t="s">
         <v>568</v>
       </c>
     </row>
@@ -21507,7 +21277,7 @@
       <c r="E40" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="F40" s="112" t="s">
+      <c r="F40" s="99" t="s">
         <v>568</v>
       </c>
     </row>
@@ -21527,7 +21297,7 @@
       <c r="E41" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="F41" s="112" t="s">
+      <c r="F41" s="99" t="s">
         <v>568</v>
       </c>
     </row>
@@ -21547,7 +21317,7 @@
       <c r="E42" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="F42" s="112" t="s">
+      <c r="F42" s="99" t="s">
         <v>568</v>
       </c>
     </row>
@@ -21567,7 +21337,7 @@
       <c r="E43" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="F43" s="112" t="s">
+      <c r="F43" s="99" t="s">
         <v>568</v>
       </c>
     </row>
@@ -21587,7 +21357,7 @@
       <c r="E44" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="F44" s="112" t="s">
+      <c r="F44" s="99" t="s">
         <v>568</v>
       </c>
     </row>
@@ -21607,7 +21377,7 @@
       <c r="E45" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="F45" s="112" t="s">
+      <c r="F45" s="99" t="s">
         <v>568</v>
       </c>
     </row>
@@ -21627,7 +21397,7 @@
       <c r="E46" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="F46" s="112" t="s">
+      <c r="F46" s="99" t="s">
         <v>568</v>
       </c>
     </row>
@@ -21647,7 +21417,7 @@
       <c r="E47" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="F47" s="112" t="s">
+      <c r="F47" s="99" t="s">
         <v>568</v>
       </c>
     </row>
@@ -21667,7 +21437,7 @@
       <c r="E48" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="F48" s="112" t="s">
+      <c r="F48" s="99" t="s">
         <v>568</v>
       </c>
     </row>
@@ -21687,7 +21457,7 @@
       <c r="E49" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="F49" s="112" t="s">
+      <c r="F49" s="99" t="s">
         <v>568</v>
       </c>
     </row>
@@ -21707,7 +21477,7 @@
       <c r="E50" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="F50" s="112" t="s">
+      <c r="F50" s="99" t="s">
         <v>568</v>
       </c>
     </row>
@@ -21727,7 +21497,7 @@
       <c r="E51" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="F51" s="112" t="s">
+      <c r="F51" s="99" t="s">
         <v>568</v>
       </c>
     </row>
@@ -21747,7 +21517,7 @@
       <c r="E52" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="F52" s="112" t="s">
+      <c r="F52" s="99" t="s">
         <v>568</v>
       </c>
     </row>
@@ -21767,7 +21537,7 @@
       <c r="E53" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="F53" s="112" t="s">
+      <c r="F53" s="99" t="s">
         <v>568</v>
       </c>
     </row>
@@ -21787,7 +21557,7 @@
       <c r="E54" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="F54" s="112" t="s">
+      <c r="F54" s="99" t="s">
         <v>568</v>
       </c>
     </row>
@@ -21807,7 +21577,7 @@
       <c r="E55" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="F55" s="112" t="s">
+      <c r="F55" s="99" t="s">
         <v>568</v>
       </c>
     </row>
@@ -21827,7 +21597,7 @@
       <c r="E56" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="F56" s="112" t="s">
+      <c r="F56" s="99" t="s">
         <v>568</v>
       </c>
     </row>
@@ -21847,7 +21617,7 @@
       <c r="E57" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="F57" s="112" t="s">
+      <c r="F57" s="99" t="s">
         <v>568</v>
       </c>
     </row>
@@ -21867,7 +21637,7 @@
       <c r="E58" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="F58" s="112" t="s">
+      <c r="F58" s="99" t="s">
         <v>568</v>
       </c>
     </row>
@@ -21887,7 +21657,7 @@
       <c r="E59" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="F59" s="112" t="s">
+      <c r="F59" s="99" t="s">
         <v>568</v>
       </c>
     </row>
@@ -21907,7 +21677,7 @@
       <c r="E60" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="F60" s="112" t="s">
+      <c r="F60" s="99" t="s">
         <v>568</v>
       </c>
     </row>
@@ -21927,7 +21697,7 @@
       <c r="E61" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="F61" s="112" t="s">
+      <c r="F61" s="99" t="s">
         <v>568</v>
       </c>
     </row>
@@ -21947,7 +21717,7 @@
       <c r="E62" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="F62" s="112" t="s">
+      <c r="F62" s="99" t="s">
         <v>568</v>
       </c>
     </row>
@@ -21967,7 +21737,7 @@
       <c r="E63" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="F63" s="112" t="s">
+      <c r="F63" s="99" t="s">
         <v>568</v>
       </c>
     </row>
@@ -21987,7 +21757,7 @@
       <c r="E64" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="F64" s="112" t="s">
+      <c r="F64" s="99" t="s">
         <v>568</v>
       </c>
     </row>
@@ -22007,7 +21777,7 @@
       <c r="E65" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="F65" s="112" t="s">
+      <c r="F65" s="99" t="s">
         <v>568</v>
       </c>
     </row>
@@ -22027,7 +21797,7 @@
       <c r="E66" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="F66" s="112" t="s">
+      <c r="F66" s="99" t="s">
         <v>568</v>
       </c>
     </row>
@@ -22047,7 +21817,7 @@
       <c r="E67" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F67" s="112" t="s">
+      <c r="F67" s="99" t="s">
         <v>568</v>
       </c>
     </row>
@@ -22067,7 +21837,7 @@
       <c r="E68" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F68" s="112" t="s">
+      <c r="F68" s="99" t="s">
         <v>568</v>
       </c>
     </row>
@@ -22087,7 +21857,7 @@
       <c r="E69" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="F69" s="112" t="s">
+      <c r="F69" s="99" t="s">
         <v>568</v>
       </c>
     </row>
@@ -22107,7 +21877,7 @@
       <c r="E70" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="F70" s="112" t="s">
+      <c r="F70" s="99" t="s">
         <v>568</v>
       </c>
     </row>
@@ -22127,7 +21897,7 @@
       <c r="E71" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="F71" s="112" t="s">
+      <c r="F71" s="99" t="s">
         <v>568</v>
       </c>
     </row>
@@ -22147,7 +21917,7 @@
       <c r="E72" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="F72" s="112" t="s">
+      <c r="F72" s="99" t="s">
         <v>568</v>
       </c>
     </row>
@@ -22167,7 +21937,7 @@
       <c r="E73" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="F73" s="112" t="s">
+      <c r="F73" s="99" t="s">
         <v>568</v>
       </c>
     </row>
@@ -22187,7 +21957,7 @@
       <c r="E74" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="F74" s="112" t="s">
+      <c r="F74" s="99" t="s">
         <v>568</v>
       </c>
     </row>
@@ -22207,7 +21977,7 @@
       <c r="E75" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="F75" s="112" t="s">
+      <c r="F75" s="99" t="s">
         <v>568</v>
       </c>
     </row>
@@ -22227,7 +21997,7 @@
       <c r="E76" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="F76" s="112" t="s">
+      <c r="F76" s="99" t="s">
         <v>568</v>
       </c>
     </row>
@@ -22247,7 +22017,7 @@
       <c r="E77" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="F77" s="112" t="s">
+      <c r="F77" s="99" t="s">
         <v>568</v>
       </c>
     </row>
@@ -22267,7 +22037,7 @@
       <c r="E78" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="F78" s="112" t="s">
+      <c r="F78" s="99" t="s">
         <v>568</v>
       </c>
     </row>
@@ -22287,7 +22057,7 @@
       <c r="E79" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="F79" s="112" t="s">
+      <c r="F79" s="99" t="s">
         <v>568</v>
       </c>
     </row>
@@ -22307,7 +22077,7 @@
       <c r="E80" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="F80" s="112" t="s">
+      <c r="F80" s="99" t="s">
         <v>568</v>
       </c>
     </row>
@@ -22327,7 +22097,7 @@
       <c r="E81" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="F81" s="112" t="s">
+      <c r="F81" s="99" t="s">
         <v>568</v>
       </c>
     </row>
@@ -22347,7 +22117,7 @@
       <c r="E82" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="F82" s="112" t="s">
+      <c r="F82" s="99" t="s">
         <v>568</v>
       </c>
     </row>
@@ -22367,7 +22137,7 @@
       <c r="E83" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="F83" s="112" t="s">
+      <c r="F83" s="99" t="s">
         <v>568</v>
       </c>
     </row>
@@ -22387,7 +22157,7 @@
       <c r="E84" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="F84" s="112" t="s">
+      <c r="F84" s="99" t="s">
         <v>568</v>
       </c>
     </row>
@@ -22407,7 +22177,7 @@
       <c r="E85" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="F85" s="112" t="s">
+      <c r="F85" s="99" t="s">
         <v>568</v>
       </c>
     </row>
@@ -22427,7 +22197,7 @@
       <c r="E86" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="F86" s="112" t="s">
+      <c r="F86" s="99" t="s">
         <v>568</v>
       </c>
     </row>
@@ -22447,7 +22217,7 @@
       <c r="E87" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="F87" s="112" t="s">
+      <c r="F87" s="99" t="s">
         <v>568</v>
       </c>
     </row>
@@ -22467,7 +22237,7 @@
       <c r="E88" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="F88" s="112" t="s">
+      <c r="F88" s="99" t="s">
         <v>568</v>
       </c>
     </row>
@@ -22487,7 +22257,7 @@
       <c r="E89" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="F89" s="112" t="s">
+      <c r="F89" s="99" t="s">
         <v>568</v>
       </c>
     </row>
@@ -22507,7 +22277,7 @@
       <c r="E90" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="F90" s="112" t="s">
+      <c r="F90" s="99" t="s">
         <v>568</v>
       </c>
     </row>
@@ -22527,7 +22297,7 @@
       <c r="E91" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="F91" s="112" t="s">
+      <c r="F91" s="99" t="s">
         <v>568</v>
       </c>
     </row>
@@ -22547,7 +22317,7 @@
       <c r="E92" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="F92" s="112" t="s">
+      <c r="F92" s="99" t="s">
         <v>568</v>
       </c>
     </row>
@@ -22567,7 +22337,7 @@
       <c r="E93" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="F93" s="112" t="s">
+      <c r="F93" s="99" t="s">
         <v>568</v>
       </c>
     </row>
@@ -22587,7 +22357,7 @@
       <c r="E94" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="F94" s="112" t="s">
+      <c r="F94" s="99" t="s">
         <v>568</v>
       </c>
     </row>
@@ -22607,7 +22377,7 @@
       <c r="E95" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="F95" s="112" t="s">
+      <c r="F95" s="99" t="s">
         <v>568</v>
       </c>
     </row>
@@ -22627,148 +22397,148 @@
       <c r="E96" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="F96" s="112" t="s">
+      <c r="F96" s="99" t="s">
         <v>568</v>
       </c>
     </row>
     <row r="97" spans="1:6">
-      <c r="A97" s="104" t="s">
+      <c r="A97" s="91" t="s">
+        <v>600</v>
+      </c>
+      <c r="B97" s="91" t="s">
+        <v>601</v>
+      </c>
+      <c r="C97" s="91" t="s">
+        <v>602</v>
+      </c>
+      <c r="D97" s="91" t="s">
+        <v>9</v>
+      </c>
+      <c r="E97" s="91" t="s">
+        <v>603</v>
+      </c>
+      <c r="F97" s="100" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98" s="91" t="s">
+        <v>604</v>
+      </c>
+      <c r="B98" s="91" t="s">
+        <v>601</v>
+      </c>
+      <c r="C98" s="91" t="s">
+        <v>540</v>
+      </c>
+      <c r="D98" s="91" t="s">
+        <v>9</v>
+      </c>
+      <c r="E98" s="91" t="s">
+        <v>605</v>
+      </c>
+      <c r="F98" s="102" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99" s="91" t="s">
+        <v>606</v>
+      </c>
+      <c r="B99" s="91" t="s">
+        <v>601</v>
+      </c>
+      <c r="C99" s="91" t="s">
+        <v>541</v>
+      </c>
+      <c r="D99" s="91" t="s">
+        <v>9</v>
+      </c>
+      <c r="E99" s="91" t="s">
+        <v>607</v>
+      </c>
+      <c r="F99" s="102" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100" s="91" t="s">
+        <v>608</v>
+      </c>
+      <c r="B100" s="91" t="s">
+        <v>601</v>
+      </c>
+      <c r="C100" s="91" t="s">
+        <v>609</v>
+      </c>
+      <c r="D100" s="91" t="s">
+        <v>9</v>
+      </c>
+      <c r="E100" s="91" t="s">
+        <v>610</v>
+      </c>
+      <c r="F100" s="102" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101" s="91" t="s">
+        <v>611</v>
+      </c>
+      <c r="B101" s="91" t="s">
+        <v>601</v>
+      </c>
+      <c r="C101" s="91" t="s">
+        <v>612</v>
+      </c>
+      <c r="D101" s="91" t="s">
+        <v>9</v>
+      </c>
+      <c r="E101" s="91" t="s">
+        <v>613</v>
+      </c>
+      <c r="F101" s="102" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102" s="91" t="s">
+        <v>614</v>
+      </c>
+      <c r="B102" s="91" t="s">
+        <v>601</v>
+      </c>
+      <c r="C102" s="91" t="s">
+        <v>85</v>
+      </c>
+      <c r="D102" s="91" t="s">
+        <v>9</v>
+      </c>
+      <c r="E102" s="91" t="s">
+        <v>615</v>
+      </c>
+      <c r="F102" s="102" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103" s="91" t="s">
+        <v>616</v>
+      </c>
+      <c r="B103" s="91" t="s">
+        <v>601</v>
+      </c>
+      <c r="C103" s="91" t="s">
+        <v>617</v>
+      </c>
+      <c r="D103" s="91" t="s">
+        <v>9</v>
+      </c>
+      <c r="E103" s="91" t="s">
         <v>618</v>
       </c>
-      <c r="B97" s="104" t="s">
+      <c r="F103" s="102" t="s">
         <v>619</v>
-      </c>
-      <c r="C97" s="104" t="s">
-        <v>620</v>
-      </c>
-      <c r="D97" s="104" t="s">
-        <v>9</v>
-      </c>
-      <c r="E97" s="104" t="s">
-        <v>621</v>
-      </c>
-      <c r="F97" s="113" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6">
-      <c r="A98" s="104" t="s">
-        <v>622</v>
-      </c>
-      <c r="B98" s="104" t="s">
-        <v>619</v>
-      </c>
-      <c r="C98" s="104" t="s">
-        <v>540</v>
-      </c>
-      <c r="D98" s="104" t="s">
-        <v>9</v>
-      </c>
-      <c r="E98" s="104" t="s">
-        <v>623</v>
-      </c>
-      <c r="F98" s="115" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
-      <c r="A99" s="104" t="s">
-        <v>624</v>
-      </c>
-      <c r="B99" s="104" t="s">
-        <v>619</v>
-      </c>
-      <c r="C99" s="104" t="s">
-        <v>541</v>
-      </c>
-      <c r="D99" s="104" t="s">
-        <v>9</v>
-      </c>
-      <c r="E99" s="104" t="s">
-        <v>625</v>
-      </c>
-      <c r="F99" s="115" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6">
-      <c r="A100" s="104" t="s">
-        <v>626</v>
-      </c>
-      <c r="B100" s="104" t="s">
-        <v>619</v>
-      </c>
-      <c r="C100" s="104" t="s">
-        <v>627</v>
-      </c>
-      <c r="D100" s="104" t="s">
-        <v>9</v>
-      </c>
-      <c r="E100" s="104" t="s">
-        <v>628</v>
-      </c>
-      <c r="F100" s="115" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6">
-      <c r="A101" s="104" t="s">
-        <v>629</v>
-      </c>
-      <c r="B101" s="104" t="s">
-        <v>619</v>
-      </c>
-      <c r="C101" s="104" t="s">
-        <v>630</v>
-      </c>
-      <c r="D101" s="104" t="s">
-        <v>9</v>
-      </c>
-      <c r="E101" s="104" t="s">
-        <v>631</v>
-      </c>
-      <c r="F101" s="115" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
-      <c r="A102" s="104" t="s">
-        <v>632</v>
-      </c>
-      <c r="B102" s="104" t="s">
-        <v>619</v>
-      </c>
-      <c r="C102" s="104" t="s">
-        <v>85</v>
-      </c>
-      <c r="D102" s="104" t="s">
-        <v>9</v>
-      </c>
-      <c r="E102" s="104" t="s">
-        <v>633</v>
-      </c>
-      <c r="F102" s="115" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
-      <c r="A103" s="104" t="s">
-        <v>634</v>
-      </c>
-      <c r="B103" s="104" t="s">
-        <v>619</v>
-      </c>
-      <c r="C103" s="104" t="s">
-        <v>635</v>
-      </c>
-      <c r="D103" s="104" t="s">
-        <v>9</v>
-      </c>
-      <c r="E103" s="104" t="s">
-        <v>636</v>
-      </c>
-      <c r="F103" s="115" t="s">
-        <v>637</v>
       </c>
     </row>
   </sheetData>
@@ -22783,20 +22553,20 @@
   <sheetPr>
     <tabColor theme="3" tint="0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.899999999999999"/>
   <cols>
-    <col min="1" max="1" width="6.58203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.08203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="111.5" style="109" customWidth="1"/>
-    <col min="6" max="6" width="33.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="111.5" style="96" customWidth="1"/>
+    <col min="6" max="6" width="33.875" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -22812,11 +22582,11 @@
       <c r="D1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="110" t="s">
+      <c r="E1" s="97" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>615</v>
+        <v>597</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -22832,11 +22602,11 @@
       <c r="D2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="107" t="s">
+      <c r="E2" s="94" t="s">
         <v>221</v>
       </c>
-      <c r="F2" s="112" t="s">
-        <v>616</v>
+      <c r="F2" s="99" t="s">
+        <v>598</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -22852,11 +22622,11 @@
       <c r="D3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="107" t="s">
+      <c r="E3" s="94" t="s">
         <v>223</v>
       </c>
-      <c r="F3" s="112" t="s">
-        <v>616</v>
+      <c r="F3" s="99" t="s">
+        <v>598</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -22872,11 +22642,11 @@
       <c r="D4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="107" t="s">
+      <c r="E4" s="94" t="s">
         <v>225</v>
       </c>
-      <c r="F4" s="112" t="s">
-        <v>616</v>
+      <c r="F4" s="99" t="s">
+        <v>598</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -22892,11 +22662,11 @@
       <c r="D5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="107" t="s">
+      <c r="E5" s="94" t="s">
         <v>227</v>
       </c>
-      <c r="F5" s="112" t="s">
-        <v>616</v>
+      <c r="F5" s="99" t="s">
+        <v>598</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -22912,11 +22682,11 @@
       <c r="D6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="107" t="s">
+      <c r="E6" s="94" t="s">
         <v>229</v>
       </c>
-      <c r="F6" s="112" t="s">
-        <v>616</v>
+      <c r="F6" s="99" t="s">
+        <v>598</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -22932,11 +22702,11 @@
       <c r="D7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="107" t="s">
+      <c r="E7" s="94" t="s">
         <v>231</v>
       </c>
-      <c r="F7" s="112" t="s">
-        <v>616</v>
+      <c r="F7" s="99" t="s">
+        <v>598</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -22952,11 +22722,11 @@
       <c r="D8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="107" t="s">
+      <c r="E8" s="94" t="s">
         <v>234</v>
       </c>
-      <c r="F8" s="112" t="s">
-        <v>616</v>
+      <c r="F8" s="99" t="s">
+        <v>598</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -22972,11 +22742,11 @@
       <c r="D9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="107" t="s">
+      <c r="E9" s="94" t="s">
         <v>236</v>
       </c>
-      <c r="F9" s="112" t="s">
-        <v>616</v>
+      <c r="F9" s="99" t="s">
+        <v>598</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -22992,11 +22762,11 @@
       <c r="D10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="107" t="s">
+      <c r="E10" s="94" t="s">
         <v>238</v>
       </c>
-      <c r="F10" s="112" t="s">
-        <v>616</v>
+      <c r="F10" s="99" t="s">
+        <v>598</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -23012,11 +22782,11 @@
       <c r="D11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="107" t="s">
+      <c r="E11" s="94" t="s">
         <v>240</v>
       </c>
-      <c r="F11" s="112" t="s">
-        <v>616</v>
+      <c r="F11" s="99" t="s">
+        <v>598</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -23032,11 +22802,11 @@
       <c r="D12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="107" t="s">
+      <c r="E12" s="94" t="s">
         <v>243</v>
       </c>
-      <c r="F12" s="112" t="s">
-        <v>616</v>
+      <c r="F12" s="99" t="s">
+        <v>598</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -23052,11 +22822,11 @@
       <c r="D13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="107" t="s">
+      <c r="E13" s="94" t="s">
         <v>245</v>
       </c>
-      <c r="F13" s="112" t="s">
-        <v>616</v>
+      <c r="F13" s="99" t="s">
+        <v>598</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -23072,11 +22842,11 @@
       <c r="D14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="107" t="s">
+      <c r="E14" s="94" t="s">
         <v>247</v>
       </c>
-      <c r="F14" s="112" t="s">
-        <v>616</v>
+      <c r="F14" s="99" t="s">
+        <v>598</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -23092,11 +22862,11 @@
       <c r="D15" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="107" t="s">
+      <c r="E15" s="94" t="s">
         <v>250</v>
       </c>
-      <c r="F15" s="112" t="s">
-        <v>616</v>
+      <c r="F15" s="99" t="s">
+        <v>598</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -23112,11 +22882,11 @@
       <c r="D16" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="107" t="s">
+      <c r="E16" s="94" t="s">
         <v>252</v>
       </c>
-      <c r="F16" s="112" t="s">
-        <v>616</v>
+      <c r="F16" s="99" t="s">
+        <v>598</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -23132,11 +22902,11 @@
       <c r="D17" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E17" s="107" t="s">
+      <c r="E17" s="94" t="s">
         <v>254</v>
       </c>
-      <c r="F17" s="112" t="s">
-        <v>616</v>
+      <c r="F17" s="99" t="s">
+        <v>598</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -23152,11 +22922,11 @@
       <c r="D18" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E18" s="107" t="s">
+      <c r="E18" s="94" t="s">
         <v>256</v>
       </c>
-      <c r="F18" s="112" t="s">
-        <v>616</v>
+      <c r="F18" s="99" t="s">
+        <v>598</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -23172,11 +22942,11 @@
       <c r="D19" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="107" t="s">
+      <c r="E19" s="94" t="s">
         <v>258</v>
       </c>
-      <c r="F19" s="112" t="s">
-        <v>616</v>
+      <c r="F19" s="99" t="s">
+        <v>598</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -23192,11 +22962,11 @@
       <c r="D20" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E20" s="107" t="s">
+      <c r="E20" s="94" t="s">
         <v>261</v>
       </c>
-      <c r="F20" s="112" t="s">
-        <v>616</v>
+      <c r="F20" s="99" t="s">
+        <v>598</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -23212,11 +22982,11 @@
       <c r="D21" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E21" s="107" t="s">
+      <c r="E21" s="94" t="s">
         <v>263</v>
       </c>
-      <c r="F21" s="112" t="s">
-        <v>616</v>
+      <c r="F21" s="99" t="s">
+        <v>598</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -23232,11 +23002,11 @@
       <c r="D22" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E22" s="107" t="s">
+      <c r="E22" s="94" t="s">
         <v>265</v>
       </c>
-      <c r="F22" s="112" t="s">
-        <v>616</v>
+      <c r="F22" s="99" t="s">
+        <v>598</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -23252,11 +23022,11 @@
       <c r="D23" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E23" s="107" t="s">
+      <c r="E23" s="94" t="s">
         <v>267</v>
       </c>
-      <c r="F23" s="112" t="s">
-        <v>616</v>
+      <c r="F23" s="99" t="s">
+        <v>598</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -23272,11 +23042,11 @@
       <c r="D24" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E24" s="107" t="s">
+      <c r="E24" s="94" t="s">
         <v>269</v>
       </c>
-      <c r="F24" s="112" t="s">
-        <v>616</v>
+      <c r="F24" s="99" t="s">
+        <v>598</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -23292,11 +23062,11 @@
       <c r="D25" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E25" s="107" t="s">
+      <c r="E25" s="94" t="s">
         <v>167</v>
       </c>
-      <c r="F25" s="112" t="s">
-        <v>616</v>
+      <c r="F25" s="99" t="s">
+        <v>598</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -23312,11 +23082,11 @@
       <c r="D26" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E26" s="107" t="s">
+      <c r="E26" s="94" t="s">
         <v>271</v>
       </c>
-      <c r="F26" s="112" t="s">
-        <v>616</v>
+      <c r="F26" s="99" t="s">
+        <v>598</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -23332,11 +23102,11 @@
       <c r="D27" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E27" s="107" t="s">
+      <c r="E27" s="94" t="s">
         <v>273</v>
       </c>
-      <c r="F27" s="112" t="s">
-        <v>616</v>
+      <c r="F27" s="99" t="s">
+        <v>598</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -23352,11 +23122,11 @@
       <c r="D28" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E28" s="107" t="s">
+      <c r="E28" s="94" t="s">
         <v>275</v>
       </c>
-      <c r="F28" s="112" t="s">
-        <v>616</v>
+      <c r="F28" s="99" t="s">
+        <v>598</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -23372,11 +23142,11 @@
       <c r="D29" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E29" s="108" t="s">
+      <c r="E29" s="95" t="s">
         <v>277</v>
       </c>
-      <c r="F29" s="112" t="s">
-        <v>616</v>
+      <c r="F29" s="99" t="s">
+        <v>598</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -23392,11 +23162,11 @@
       <c r="D30" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E30" s="108" t="s">
+      <c r="E30" s="95" t="s">
         <v>279</v>
       </c>
-      <c r="F30" s="112" t="s">
-        <v>616</v>
+      <c r="F30" s="99" t="s">
+        <v>598</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -23412,11 +23182,11 @@
       <c r="D31" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E31" s="108" t="s">
+      <c r="E31" s="95" t="s">
         <v>281</v>
       </c>
-      <c r="F31" s="112" t="s">
-        <v>616</v>
+      <c r="F31" s="99" t="s">
+        <v>598</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -23432,14 +23202,14 @@
       <c r="D32" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E32" s="107" t="s">
+      <c r="E32" s="94" t="s">
         <v>283</v>
       </c>
-      <c r="F32" s="112" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+      <c r="F32" s="99" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
         <v>284</v>
       </c>
@@ -23452,14 +23222,14 @@
       <c r="D33" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E33" s="107" t="s">
+      <c r="E33" s="94" t="s">
         <v>285</v>
       </c>
-      <c r="F33" s="112" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+      <c r="F33" s="99" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
         <v>286</v>
       </c>
@@ -23472,51 +23242,57 @@
       <c r="D34" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E34" s="107" t="s">
+      <c r="E34" s="94" t="s">
         <v>287</v>
       </c>
-      <c r="F34" s="112" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="104" t="s">
-        <v>639</v>
-      </c>
-      <c r="B35" s="104" t="s">
+      <c r="F34" s="99" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="91" t="s">
+        <v>621</v>
+      </c>
+      <c r="B35" s="91" t="s">
         <v>514</v>
       </c>
-      <c r="C35" s="104" t="s">
+      <c r="C35" s="91" t="s">
         <v>180</v>
       </c>
-      <c r="D35" s="104" t="s">
+      <c r="D35" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="E35" s="111" t="s">
-        <v>640</v>
-      </c>
-      <c r="F35" s="113" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="104" t="s">
-        <v>641</v>
-      </c>
-      <c r="B36" s="104" t="s">
+      <c r="E35" s="98" t="s">
+        <v>622</v>
+      </c>
+      <c r="F35" s="100" t="s">
+        <v>625</v>
+      </c>
+      <c r="G35" s="186" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="91" t="s">
+        <v>623</v>
+      </c>
+      <c r="B36" s="91" t="s">
         <v>514</v>
       </c>
-      <c r="C36" s="104" t="s">
+      <c r="C36" s="91" t="s">
         <v>183</v>
       </c>
-      <c r="D36" s="104" t="s">
+      <c r="D36" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="E36" s="111" t="s">
-        <v>642</v>
-      </c>
-      <c r="F36" s="113" t="s">
-        <v>643</v>
+      <c r="E36" s="98" t="s">
+        <v>624</v>
+      </c>
+      <c r="F36" s="100" t="s">
+        <v>625</v>
+      </c>
+      <c r="G36" s="186" t="s">
+        <v>678</v>
       </c>
     </row>
   </sheetData>
@@ -23530,13 +23306,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{876A2D7A-9C76-4F3A-9C65-5B376F65F2C7}">
   <dimension ref="A1:T52"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H57" sqref="H57"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.899999999999999"/>
   <cols>
-    <col min="2" max="20" width="11.08203125" style="3" customWidth="1"/>
+    <col min="2" max="20" width="11.125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -23573,17 +23349,17 @@
       <c r="A8" s="11" t="s">
         <v>314</v>
       </c>
-      <c r="B8" s="178" t="s">
+      <c r="B8" s="175" t="s">
         <v>306</v>
       </c>
-      <c r="C8" s="178"/>
-      <c r="D8" s="178"/>
-      <c r="E8" s="178"/>
-      <c r="F8" s="178"/>
-      <c r="G8" s="178"/>
-      <c r="H8" s="178"/>
-    </row>
-    <row r="9" spans="1:8" ht="34">
+      <c r="C8" s="175"/>
+      <c r="D8" s="175"/>
+      <c r="E8" s="175"/>
+      <c r="F8" s="175"/>
+      <c r="G8" s="175"/>
+      <c r="H8" s="175"/>
+    </row>
+    <row r="9" spans="1:8" ht="33.75">
       <c r="A9" s="11" t="s">
         <v>313</v>
       </c>
@@ -23665,17 +23441,17 @@
       <c r="A13" s="11" t="s">
         <v>314</v>
       </c>
-      <c r="B13" s="175" t="s">
+      <c r="B13" s="172" t="s">
         <v>315</v>
       </c>
-      <c r="C13" s="176"/>
-      <c r="D13" s="176"/>
-      <c r="E13" s="176"/>
-      <c r="F13" s="177"/>
+      <c r="C13" s="173"/>
+      <c r="D13" s="173"/>
+      <c r="E13" s="173"/>
+      <c r="F13" s="174"/>
       <c r="G13"/>
       <c r="H13"/>
     </row>
-    <row r="14" spans="1:8" ht="34">
+    <row r="14" spans="1:8" ht="33.75">
       <c r="A14" s="11" t="s">
         <v>313</v>
       </c>
@@ -23741,15 +23517,15 @@
       <c r="A18" s="11" t="s">
         <v>314</v>
       </c>
-      <c r="B18" s="175" t="s">
+      <c r="B18" s="172" t="s">
         <v>322</v>
       </c>
-      <c r="C18" s="176"/>
-      <c r="D18" s="176"/>
-      <c r="E18" s="176"/>
-      <c r="F18" s="177"/>
-    </row>
-    <row r="19" spans="1:20" ht="34">
+      <c r="C18" s="173"/>
+      <c r="D18" s="173"/>
+      <c r="E18" s="173"/>
+      <c r="F18" s="174"/>
+    </row>
+    <row r="19" spans="1:20" ht="33.75">
       <c r="A19" s="11" t="s">
         <v>313</v>
       </c>
@@ -23813,18 +23589,18 @@
       <c r="A23" s="11" t="s">
         <v>314</v>
       </c>
-      <c r="B23" s="175" t="s">
+      <c r="B23" s="172" t="s">
         <v>333</v>
       </c>
-      <c r="C23" s="176"/>
-      <c r="D23" s="176"/>
-      <c r="E23" s="176"/>
-      <c r="F23" s="176"/>
-      <c r="G23" s="176"/>
-      <c r="H23" s="176"/>
-      <c r="I23" s="177"/>
-    </row>
-    <row r="24" spans="1:20" ht="34">
+      <c r="C23" s="173"/>
+      <c r="D23" s="173"/>
+      <c r="E23" s="173"/>
+      <c r="F23" s="173"/>
+      <c r="G23" s="173"/>
+      <c r="H23" s="173"/>
+      <c r="I23" s="174"/>
+    </row>
+    <row r="24" spans="1:20" ht="33.75">
       <c r="A24" s="11" t="s">
         <v>313</v>
       </c>
@@ -23911,19 +23687,19 @@
         <v>340</v>
       </c>
     </row>
-    <row r="27" spans="1:20" ht="17.5" thickBot="1"/>
-    <row r="28" spans="1:20" ht="17.5" thickBot="1">
+    <row r="27" spans="1:20" ht="17.25" thickBot="1"/>
+    <row r="28" spans="1:20" ht="17.25" thickBot="1">
       <c r="A28" s="25" t="s">
         <v>314</v>
       </c>
-      <c r="B28" s="179" t="s">
+      <c r="B28" s="176" t="s">
         <v>348</v>
       </c>
-      <c r="C28" s="180"/>
-      <c r="D28" s="180"/>
-      <c r="E28" s="180"/>
-      <c r="F28" s="181"/>
-      <c r="G28" s="182"/>
+      <c r="C28" s="177"/>
+      <c r="D28" s="177"/>
+      <c r="E28" s="177"/>
+      <c r="F28" s="178"/>
+      <c r="G28" s="179"/>
       <c r="L28"/>
       <c r="M28"/>
       <c r="N28"/>
@@ -23934,29 +23710,29 @@
       <c r="S28"/>
       <c r="T28"/>
     </row>
-    <row r="29" spans="1:20" ht="34.5" thickTop="1">
+    <row r="29" spans="1:20" ht="34.15" thickTop="1">
       <c r="A29" s="26" t="s">
         <v>313</v>
       </c>
-      <c r="B29" s="116" t="s">
-        <v>614</v>
-      </c>
-      <c r="C29" s="116" t="s">
+      <c r="B29" s="103" t="s">
+        <v>596</v>
+      </c>
+      <c r="C29" s="103" t="s">
         <v>335</v>
       </c>
-      <c r="D29" s="116" t="s">
+      <c r="D29" s="103" t="s">
         <v>292</v>
       </c>
-      <c r="E29" s="118" t="s">
+      <c r="E29" s="105" t="s">
         <v>336</v>
       </c>
-      <c r="F29" s="117" t="s">
-        <v>644</v>
-      </c>
-      <c r="G29" s="127" t="s">
-        <v>645</v>
-      </c>
-      <c r="H29" s="126"/>
+      <c r="F29" s="104" t="s">
+        <v>626</v>
+      </c>
+      <c r="G29" s="114" t="s">
+        <v>627</v>
+      </c>
+      <c r="H29" s="113"/>
       <c r="L29"/>
       <c r="M29"/>
       <c r="N29"/>
@@ -23980,16 +23756,16 @@
       <c r="D30" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="E30" s="120" t="s">
+      <c r="E30" s="107" t="s">
         <v>307</v>
       </c>
-      <c r="F30" s="119" t="s">
+      <c r="F30" s="106" t="s">
         <v>307</v>
       </c>
-      <c r="G30" s="125" t="s">
+      <c r="G30" s="112" t="s">
         <v>6</v>
       </c>
-      <c r="H30" s="126"/>
+      <c r="H30" s="113"/>
       <c r="L30"/>
       <c r="M30"/>
       <c r="N30"/>
@@ -24000,7 +23776,7 @@
       <c r="S30"/>
       <c r="T30"/>
     </row>
-    <row r="31" spans="1:20" ht="17.5" thickBot="1">
+    <row r="31" spans="1:20" ht="17.25" thickBot="1">
       <c r="A31" s="27" t="s">
         <v>311</v>
       </c>
@@ -24013,14 +23789,14 @@
       <c r="D31" s="28" t="s">
         <v>302</v>
       </c>
-      <c r="E31" s="121" t="s">
+      <c r="E31" s="108" t="s">
         <v>303</v>
       </c>
-      <c r="F31" s="122" t="s">
-        <v>646</v>
-      </c>
-      <c r="G31" s="124" t="s">
-        <v>647</v>
+      <c r="F31" s="109" t="s">
+        <v>628</v>
+      </c>
+      <c r="G31" s="111" t="s">
+        <v>629</v>
       </c>
       <c r="L31"/>
       <c r="M31"/>
@@ -24032,128 +23808,128 @@
       <c r="S31"/>
       <c r="T31"/>
     </row>
-    <row r="32" spans="1:20" ht="18" thickTop="1" thickBot="1">
-      <c r="A32" s="142"/>
-      <c r="B32" s="143"/>
-      <c r="C32" s="143"/>
-      <c r="D32" s="143"/>
-      <c r="E32" s="143"/>
-      <c r="F32" s="144"/>
-      <c r="G32" s="144"/>
-    </row>
-    <row r="33" spans="1:17" ht="17.5" thickBot="1">
-      <c r="A33" s="141" t="s">
+    <row r="32" spans="1:20" ht="17.649999999999999" thickTop="1" thickBot="1">
+      <c r="A32" s="129"/>
+      <c r="B32" s="130"/>
+      <c r="C32" s="130"/>
+      <c r="D32" s="130"/>
+      <c r="E32" s="130"/>
+      <c r="F32" s="131"/>
+      <c r="G32" s="131"/>
+    </row>
+    <row r="33" spans="1:17" ht="17.25" thickBot="1">
+      <c r="A33" s="128" t="s">
         <v>314</v>
       </c>
-      <c r="B33" s="183" t="s">
+      <c r="B33" s="180" t="s">
         <v>349</v>
       </c>
-      <c r="C33" s="184"/>
-      <c r="D33" s="184"/>
-      <c r="E33" s="184"/>
-      <c r="F33" s="184"/>
-      <c r="G33" s="184"/>
-      <c r="H33" s="145"/>
-    </row>
-    <row r="34" spans="1:17" ht="48.5" thickTop="1">
+      <c r="C33" s="181"/>
+      <c r="D33" s="181"/>
+      <c r="E33" s="181"/>
+      <c r="F33" s="181"/>
+      <c r="G33" s="181"/>
+      <c r="H33" s="132"/>
+    </row>
+    <row r="34" spans="1:17" ht="47.65" thickTop="1">
       <c r="A34" s="11" t="s">
         <v>313</v>
       </c>
-      <c r="B34" s="128" t="s">
+      <c r="B34" s="115" t="s">
         <v>342</v>
       </c>
-      <c r="C34" s="129" t="s">
+      <c r="C34" s="116" t="s">
         <v>344</v>
       </c>
-      <c r="D34" s="127" t="s">
+      <c r="D34" s="114" t="s">
         <v>345</v>
       </c>
-      <c r="E34" s="134" t="s">
+      <c r="E34" s="121" t="s">
         <v>346</v>
       </c>
-      <c r="F34" s="139" t="s">
+      <c r="F34" s="126" t="s">
         <v>347</v>
       </c>
-      <c r="G34" s="137" t="s">
-        <v>654</v>
-      </c>
-      <c r="H34" s="136"/>
+      <c r="G34" s="124" t="s">
+        <v>636</v>
+      </c>
+      <c r="H34" s="123"/>
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="11" t="s">
         <v>312</v>
       </c>
-      <c r="B35" s="130" t="s">
+      <c r="B35" s="117" t="s">
         <v>378</v>
       </c>
-      <c r="C35" s="131" t="s">
+      <c r="C35" s="118" t="s">
         <v>307</v>
       </c>
-      <c r="D35" s="125" t="s">
+      <c r="D35" s="112" t="s">
         <v>307</v>
       </c>
-      <c r="E35" s="133" t="s">
+      <c r="E35" s="120" t="s">
         <v>307</v>
       </c>
-      <c r="F35" s="120" t="s">
+      <c r="F35" s="107" t="s">
         <v>307</v>
       </c>
-      <c r="G35" s="138" t="s">
+      <c r="G35" s="125" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="36" spans="1:17" ht="17.5" thickBot="1">
-      <c r="A36" s="135" t="s">
+    <row r="36" spans="1:17" ht="17.25" thickBot="1">
+      <c r="A36" s="122" t="s">
         <v>311</v>
       </c>
-      <c r="B36" s="149" t="s">
+      <c r="B36" s="136" t="s">
         <v>343</v>
       </c>
-      <c r="C36" s="122" t="s">
+      <c r="C36" s="109" t="s">
         <v>300</v>
       </c>
-      <c r="D36" s="132" t="s">
+      <c r="D36" s="119" t="s">
         <v>300</v>
       </c>
-      <c r="E36" s="150" t="s">
+      <c r="E36" s="137" t="s">
         <v>350</v>
       </c>
-      <c r="F36" s="146" t="s">
+      <c r="F36" s="133" t="s">
         <v>351</v>
       </c>
-      <c r="G36" s="140" t="s">
+      <c r="G36" s="127" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="37" spans="1:17" ht="17.5" thickTop="1">
-      <c r="A37" s="148"/>
-      <c r="C37" s="123"/>
-      <c r="F37" s="147"/>
+    <row r="37" spans="1:17" ht="17.25" thickTop="1">
+      <c r="A37" s="135"/>
+      <c r="C37" s="110"/>
+      <c r="F37" s="134"/>
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="11" t="s">
         <v>314</v>
       </c>
-      <c r="B38" s="178" t="s">
+      <c r="B38" s="175" t="s">
         <v>390</v>
       </c>
-      <c r="C38" s="178"/>
-      <c r="D38" s="178"/>
-      <c r="E38" s="178"/>
-      <c r="F38" s="178"/>
-      <c r="G38" s="178"/>
-      <c r="H38" s="178"/>
-      <c r="I38" s="178"/>
-      <c r="J38" s="178"/>
-      <c r="K38" s="178"/>
-      <c r="L38" s="178"/>
-      <c r="M38" s="178"/>
-      <c r="N38" s="178"/>
-      <c r="O38" s="178"/>
-      <c r="P38" s="178"/>
-      <c r="Q38" s="178"/>
-    </row>
-    <row r="39" spans="1:17" ht="34">
+      <c r="C38" s="175"/>
+      <c r="D38" s="175"/>
+      <c r="E38" s="175"/>
+      <c r="F38" s="175"/>
+      <c r="G38" s="175"/>
+      <c r="H38" s="175"/>
+      <c r="I38" s="175"/>
+      <c r="J38" s="175"/>
+      <c r="K38" s="175"/>
+      <c r="L38" s="175"/>
+      <c r="M38" s="175"/>
+      <c r="N38" s="175"/>
+      <c r="O38" s="175"/>
+      <c r="P38" s="175"/>
+      <c r="Q38" s="175"/>
+    </row>
+    <row r="39" spans="1:17" ht="33.75">
       <c r="A39" s="11" t="s">
         <v>313</v>
       </c>
@@ -24269,7 +24045,7 @@
       <c r="C41" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="D41" s="103" t="s">
+      <c r="D41" s="90" t="s">
         <v>360</v>
       </c>
       <c r="E41" s="19" t="s">
@@ -24284,7 +24060,7 @@
       <c r="H41" s="74" t="s">
         <v>328</v>
       </c>
-      <c r="I41" s="92" t="s">
+      <c r="I41" s="83" t="s">
         <v>329</v>
       </c>
       <c r="J41" s="16" t="s">
@@ -24321,15 +24097,15 @@
       <c r="A43" s="11" t="s">
         <v>314</v>
       </c>
-      <c r="B43" s="178" t="s">
+      <c r="B43" s="175" t="s">
         <v>389</v>
       </c>
-      <c r="C43" s="178"/>
-      <c r="D43" s="178"/>
-      <c r="E43" s="178"/>
-      <c r="F43" s="178"/>
-    </row>
-    <row r="44" spans="1:17" ht="34">
+      <c r="C43" s="175"/>
+      <c r="D43" s="175"/>
+      <c r="E43" s="175"/>
+      <c r="F43" s="175"/>
+    </row>
+    <row r="44" spans="1:17" ht="33.75">
       <c r="A44" s="11" t="s">
         <v>313</v>
       </c>
@@ -24393,19 +24169,19 @@
       <c r="A48" s="11" t="s">
         <v>314</v>
       </c>
-      <c r="B48" s="175" t="s">
+      <c r="B48" s="172" t="s">
         <v>381</v>
       </c>
-      <c r="C48" s="176"/>
-      <c r="D48" s="176"/>
-      <c r="E48" s="176"/>
-      <c r="F48" s="176"/>
-      <c r="G48" s="176"/>
-      <c r="H48" s="176"/>
-      <c r="I48" s="176"/>
-      <c r="J48" s="177"/>
-    </row>
-    <row r="49" spans="1:10" ht="34">
+      <c r="C48" s="173"/>
+      <c r="D48" s="173"/>
+      <c r="E48" s="173"/>
+      <c r="F48" s="173"/>
+      <c r="G48" s="173"/>
+      <c r="H48" s="173"/>
+      <c r="I48" s="173"/>
+      <c r="J48" s="174"/>
+    </row>
+    <row r="49" spans="1:10" ht="33.75">
       <c r="A49" s="11" t="s">
         <v>313</v>
       </c>
@@ -24437,7 +24213,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="17.5" thickBot="1">
+    <row r="50" spans="1:10" ht="17.25" thickBot="1">
       <c r="A50" s="11" t="s">
         <v>312</v>
       </c>
@@ -24469,7 +24245,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="17.5" thickBot="1">
+    <row r="51" spans="1:10" ht="17.25" thickBot="1">
       <c r="A51" s="11" t="s">
         <v>382</v>
       </c>
@@ -24556,22 +24332,22 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:BH246"/>
+  <dimension ref="A1:CA246"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L152" sqref="L152"/>
+    <sheetView tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J146" sqref="J146"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.899999999999999"/>
   <cols>
     <col min="9" max="9" width="13" customWidth="1"/>
-    <col min="10" max="10" width="16.08203125" customWidth="1"/>
-    <col min="11" max="11" width="17.08203125" customWidth="1"/>
-    <col min="12" max="12" width="39.33203125" customWidth="1"/>
-    <col min="13" max="13" width="54.58203125" customWidth="1"/>
-    <col min="14" max="14" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="22" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="23" max="33" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.125" customWidth="1"/>
+    <col min="11" max="11" width="17.125" customWidth="1"/>
+    <col min="12" max="12" width="39.375" customWidth="1"/>
+    <col min="13" max="13" width="54.625" customWidth="1"/>
+    <col min="14" max="14" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="15" max="22" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="23" max="33" width="9.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -24586,7 +24362,7 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="59" t="s">
-        <v>584</v>
+        <v>569</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -24601,7 +24377,7 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="59" t="s">
-        <v>585</v>
+        <v>570</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -24702,7 +24478,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="20" spans="9:14" ht="17.5" thickBot="1">
+    <row r="20" spans="9:14" ht="17.25" thickBot="1">
       <c r="J20" s="46" t="s">
         <v>5</v>
       </c>
@@ -24719,9 +24495,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="9:14" ht="17.5" thickBot="1">
-      <c r="I21" s="101" t="s">
-        <v>610</v>
+    <row r="21" spans="9:14" ht="17.25" thickBot="1">
+      <c r="I21" s="88" t="s">
+        <v>592</v>
       </c>
       <c r="J21" s="52" t="s">
         <v>10</v>
@@ -24774,8 +24550,8 @@
       </c>
     </row>
     <row r="24" spans="9:14">
-      <c r="I24" s="101" t="s">
-        <v>610</v>
+      <c r="I24" s="88" t="s">
+        <v>592</v>
       </c>
       <c r="J24" s="46" t="s">
         <v>25</v>
@@ -24794,8 +24570,8 @@
       </c>
     </row>
     <row r="25" spans="9:14">
-      <c r="I25" s="101" t="s">
-        <v>610</v>
+      <c r="I25" s="88" t="s">
+        <v>592</v>
       </c>
       <c r="J25" s="42" t="s">
         <v>30</v>
@@ -24815,13 +24591,13 @@
       </c>
     </row>
     <row r="26" spans="9:14">
-      <c r="I26" s="101" t="s">
-        <v>610</v>
-      </c>
-      <c r="J26" s="99" t="s">
+      <c r="I26" s="88" t="s">
+        <v>592</v>
+      </c>
+      <c r="J26" s="86" t="s">
         <v>457</v>
       </c>
-      <c r="K26" s="100" t="s">
+      <c r="K26" s="87" t="s">
         <v>309</v>
       </c>
       <c r="L26" s="51" t="s">
@@ -24897,8 +24673,8 @@
       </c>
     </row>
     <row r="38" spans="1:14">
-      <c r="I38" s="102" t="s">
-        <v>610</v>
+      <c r="I38" s="89" t="s">
+        <v>592</v>
       </c>
       <c r="J38" s="42" t="s">
         <v>455</v>
@@ -24918,8 +24694,8 @@
       </c>
     </row>
     <row r="39" spans="1:14">
-      <c r="I39" s="102" t="s">
-        <v>610</v>
+      <c r="I39" s="89" t="s">
+        <v>592</v>
       </c>
       <c r="J39" s="42" t="s">
         <v>456</v>
@@ -24939,8 +24715,8 @@
       </c>
     </row>
     <row r="40" spans="1:14">
-      <c r="I40" s="102" t="s">
-        <v>610</v>
+      <c r="I40" s="89" t="s">
+        <v>592</v>
       </c>
       <c r="J40" s="42" t="s">
         <v>460</v>
@@ -25001,8 +24777,8 @@
       </c>
     </row>
     <row r="61" spans="1:14">
-      <c r="I61" s="102" t="s">
-        <v>610</v>
+      <c r="I61" s="89" t="s">
+        <v>592</v>
       </c>
       <c r="J61" s="42" t="s">
         <v>358</v>
@@ -25022,8 +24798,8 @@
       </c>
     </row>
     <row r="62" spans="1:14">
-      <c r="I62" s="102" t="s">
-        <v>610</v>
+      <c r="I62" s="89" t="s">
+        <v>592</v>
       </c>
       <c r="J62" s="42" t="s">
         <v>359</v>
@@ -25043,8 +24819,8 @@
       </c>
     </row>
     <row r="63" spans="1:14">
-      <c r="I63" s="102" t="s">
-        <v>610</v>
+      <c r="I63" s="89" t="s">
+        <v>592</v>
       </c>
       <c r="J63" s="42" t="s">
         <v>462</v>
@@ -25064,8 +24840,8 @@
       </c>
     </row>
     <row r="64" spans="1:14">
-      <c r="I64" s="102" t="s">
-        <v>610</v>
+      <c r="I64" s="89" t="s">
+        <v>592</v>
       </c>
       <c r="J64" s="42" t="s">
         <v>463</v>
@@ -25130,8 +24906,8 @@
       </c>
     </row>
     <row r="86" spans="1:14">
-      <c r="I86" s="102" t="s">
-        <v>610</v>
+      <c r="I86" s="89" t="s">
+        <v>592</v>
       </c>
       <c r="J86" s="40" t="s">
         <v>334</v>
@@ -25151,8 +24927,8 @@
       </c>
     </row>
     <row r="87" spans="1:14">
-      <c r="I87" s="102" t="s">
-        <v>610</v>
+      <c r="I87" s="89" t="s">
+        <v>592</v>
       </c>
       <c r="J87" s="40" t="s">
         <v>335</v>
@@ -25172,8 +24948,8 @@
       </c>
     </row>
     <row r="88" spans="1:14">
-      <c r="I88" s="102" t="s">
-        <v>610</v>
+      <c r="I88" s="89" t="s">
+        <v>592</v>
       </c>
       <c r="J88" s="40" t="s">
         <v>475</v>
@@ -25193,8 +24969,8 @@
       </c>
     </row>
     <row r="89" spans="1:14">
-      <c r="I89" s="102" t="s">
-        <v>610</v>
+      <c r="I89" s="89" t="s">
+        <v>592</v>
       </c>
       <c r="J89" s="40" t="s">
         <v>476</v>
@@ -25250,8 +25026,8 @@
       </c>
     </row>
     <row r="92" spans="1:14">
-      <c r="I92" s="102" t="s">
-        <v>610</v>
+      <c r="I92" s="89" t="s">
+        <v>592</v>
       </c>
       <c r="J92" s="42" t="s">
         <v>186</v>
@@ -25271,8 +25047,8 @@
       </c>
     </row>
     <row r="93" spans="1:14">
-      <c r="I93" s="102" t="s">
-        <v>610</v>
+      <c r="I93" s="89" t="s">
+        <v>592</v>
       </c>
       <c r="J93" s="42" t="s">
         <v>341</v>
@@ -25303,17 +25079,17 @@
     </row>
     <row r="110" spans="1:10">
       <c r="J110" s="60" t="s">
-        <v>586</v>
+        <v>571</v>
       </c>
     </row>
     <row r="111" spans="1:10">
       <c r="J111" s="60" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
     </row>
     <row r="112" spans="1:10">
       <c r="J112" s="66" t="s">
-        <v>587</v>
+        <v>572</v>
       </c>
     </row>
     <row r="113" spans="10:14">
@@ -25399,27 +25175,27 @@
       <c r="M126" s="39"/>
       <c r="N126" s="39"/>
     </row>
-    <row r="133" spans="1:48">
+    <row r="133" spans="1:79">
       <c r="A133" s="29" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="134" spans="1:48">
+    <row r="134" spans="1:79">
       <c r="J134" s="35" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="135" spans="1:48">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="135" spans="1:79">
       <c r="J135" s="60" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="136" spans="1:48">
+    <row r="136" spans="1:79">
       <c r="J136" s="60" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="137" spans="1:48">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="137" spans="1:79">
       <c r="J137" s="36" t="s">
         <v>447</v>
       </c>
@@ -25435,669 +25211,1148 @@
       <c r="N137" s="36" t="s">
         <v>451</v>
       </c>
-      <c r="Q137" s="188"/>
-      <c r="R137" s="86"/>
-      <c r="S137" s="86"/>
-      <c r="T137" s="86"/>
-      <c r="U137" s="86"/>
-      <c r="V137" s="86"/>
-      <c r="W137" s="86"/>
-      <c r="X137" s="86"/>
-      <c r="Y137" s="86"/>
-      <c r="Z137" s="86"/>
-      <c r="AA137" s="86"/>
-      <c r="AB137" s="86"/>
-      <c r="AC137" s="86"/>
-      <c r="AD137" s="86"/>
-      <c r="AE137" s="86"/>
-      <c r="AF137" s="86"/>
-      <c r="AG137" s="86"/>
-      <c r="AH137" s="86"/>
-      <c r="AI137" s="86"/>
-      <c r="AJ137" s="86"/>
-      <c r="AK137" s="86"/>
-      <c r="AL137" s="86"/>
-      <c r="AM137" s="86"/>
-      <c r="AN137" s="86"/>
-      <c r="AO137" s="86"/>
-      <c r="AP137" s="86"/>
-      <c r="AQ137" s="86"/>
-      <c r="AR137" s="86"/>
-      <c r="AS137" s="86"/>
-      <c r="AT137" s="86"/>
-      <c r="AU137" s="86"/>
-      <c r="AV137" s="87"/>
-    </row>
-    <row r="138" spans="1:48" ht="17.5" thickBot="1">
-      <c r="J138" s="97" t="s">
+      <c r="Q137" s="162"/>
+      <c r="R137" s="77"/>
+      <c r="S137" s="77"/>
+      <c r="T137" s="77"/>
+      <c r="U137" s="77"/>
+      <c r="V137" s="77"/>
+      <c r="W137" s="77"/>
+      <c r="X137" s="77"/>
+      <c r="Y137" s="77"/>
+      <c r="Z137" s="77"/>
+      <c r="AA137" s="77"/>
+      <c r="AB137" s="77"/>
+      <c r="AC137" s="77"/>
+      <c r="AD137" s="77"/>
+      <c r="AE137" s="77"/>
+      <c r="AF137" s="77"/>
+      <c r="AG137" s="77"/>
+      <c r="AH137" s="77"/>
+      <c r="AI137" s="77"/>
+      <c r="AJ137" s="77"/>
+      <c r="AK137" s="77"/>
+      <c r="AL137" s="77"/>
+      <c r="AM137" s="77"/>
+      <c r="AN137" s="77"/>
+      <c r="AO137" s="77"/>
+      <c r="AP137" s="77"/>
+      <c r="AQ137" s="77"/>
+      <c r="AR137" s="77"/>
+      <c r="AS137" s="77"/>
+      <c r="AT137" s="78"/>
+      <c r="AV137" s="162"/>
+      <c r="AW137" s="77"/>
+      <c r="AX137" s="77"/>
+      <c r="AY137" s="77"/>
+      <c r="AZ137" s="77"/>
+      <c r="BA137" s="77"/>
+      <c r="BB137" s="77"/>
+      <c r="BC137" s="77"/>
+      <c r="BD137" s="77"/>
+      <c r="BE137" s="77"/>
+      <c r="BF137" s="77"/>
+      <c r="BG137" s="77"/>
+      <c r="BH137" s="77"/>
+      <c r="BI137" s="77"/>
+      <c r="BJ137" s="77"/>
+      <c r="BK137" s="78"/>
+      <c r="BM137" s="162"/>
+      <c r="BN137" s="77"/>
+      <c r="BO137" s="77"/>
+      <c r="BP137" s="77"/>
+      <c r="BQ137" s="77"/>
+      <c r="BR137" s="77"/>
+      <c r="BS137" s="77"/>
+      <c r="BT137" s="77"/>
+      <c r="BU137" s="77"/>
+      <c r="BV137" s="77"/>
+      <c r="BW137" s="77"/>
+      <c r="BX137" s="77"/>
+      <c r="BY137" s="77"/>
+      <c r="BZ137" s="77"/>
+      <c r="CA137" s="78"/>
+    </row>
+    <row r="138" spans="1:79" ht="17.25" thickBot="1">
+      <c r="J138" s="84" t="s">
         <v>342</v>
       </c>
-      <c r="K138" s="98" t="s">
+      <c r="K138" s="85" t="s">
         <v>343</v>
       </c>
       <c r="L138" s="48" t="s">
-        <v>605</v>
+        <v>587</v>
       </c>
       <c r="M138" s="48" t="s">
-        <v>606</v>
+        <v>588</v>
       </c>
       <c r="N138" s="48" t="s">
-        <v>608</v>
-      </c>
-      <c r="Q138" s="189"/>
-      <c r="R138" s="190"/>
-      <c r="S138" s="190"/>
-      <c r="T138" s="190"/>
-      <c r="U138" s="190"/>
-      <c r="V138" s="190"/>
-      <c r="W138" s="190"/>
-      <c r="X138" s="190"/>
-      <c r="Z138" s="190"/>
-      <c r="AA138" s="190"/>
-      <c r="AB138" s="190"/>
-      <c r="AC138" s="190"/>
-      <c r="AD138" s="190"/>
-      <c r="AE138" s="190"/>
-      <c r="AF138" s="190"/>
-      <c r="AG138" s="190"/>
-      <c r="AH138" s="190"/>
-      <c r="AI138" s="190"/>
-      <c r="AJ138" s="190"/>
-      <c r="AK138" s="190"/>
-      <c r="AL138" s="190"/>
-      <c r="AM138" s="190"/>
-      <c r="AN138" s="190"/>
-      <c r="AO138" s="190" t="s">
-        <v>679</v>
-      </c>
-      <c r="AP138" s="190"/>
-      <c r="AQ138" s="190"/>
-      <c r="AR138" s="190"/>
-      <c r="AS138" s="190"/>
-      <c r="AT138" s="190"/>
-      <c r="AU138" s="190"/>
-      <c r="AV138" s="89"/>
-    </row>
-    <row r="139" spans="1:48" ht="18" thickTop="1" thickBot="1">
-      <c r="J139" s="154" t="s">
+        <v>590</v>
+      </c>
+      <c r="Q138" s="163"/>
+      <c r="R138" s="79"/>
+      <c r="S138" s="79"/>
+      <c r="T138" s="79"/>
+      <c r="U138" s="79"/>
+      <c r="V138" s="79"/>
+      <c r="W138" s="79"/>
+      <c r="X138" s="79"/>
+      <c r="Y138" s="79"/>
+      <c r="Z138" s="79"/>
+      <c r="AA138" s="79"/>
+      <c r="AB138" s="79"/>
+      <c r="AC138" s="79"/>
+      <c r="AD138" s="79"/>
+      <c r="AE138" s="79"/>
+      <c r="AF138" s="79"/>
+      <c r="AG138" s="79"/>
+      <c r="AH138" s="79"/>
+      <c r="AI138" s="79"/>
+      <c r="AJ138" s="79"/>
+      <c r="AK138" s="79"/>
+      <c r="AL138" s="79"/>
+      <c r="AM138" s="79"/>
+      <c r="AN138" s="79"/>
+      <c r="AO138" s="79"/>
+      <c r="AP138" s="79"/>
+      <c r="AQ138" s="79"/>
+      <c r="AR138" s="79"/>
+      <c r="AS138" s="79"/>
+      <c r="AT138" s="80"/>
+      <c r="AV138" s="163"/>
+      <c r="AW138" s="79"/>
+      <c r="AX138" s="79"/>
+      <c r="AY138" s="79"/>
+      <c r="AZ138" s="79"/>
+      <c r="BA138" s="79"/>
+      <c r="BB138" s="79"/>
+      <c r="BC138" s="79"/>
+      <c r="BD138" s="79"/>
+      <c r="BE138" s="79"/>
+      <c r="BF138" s="79"/>
+      <c r="BG138" s="79"/>
+      <c r="BH138" s="79"/>
+      <c r="BI138" s="79"/>
+      <c r="BJ138" s="79"/>
+      <c r="BK138" s="80"/>
+      <c r="BM138" s="163"/>
+      <c r="BN138" s="79"/>
+      <c r="BO138" s="79"/>
+      <c r="BP138" s="79"/>
+      <c r="BQ138" s="79"/>
+      <c r="BR138" s="79"/>
+      <c r="BS138" s="79"/>
+      <c r="BT138" s="79"/>
+      <c r="BU138" s="79"/>
+      <c r="BV138" s="79"/>
+      <c r="BW138" s="79"/>
+      <c r="BX138" s="79"/>
+      <c r="BY138" s="79"/>
+      <c r="BZ138" s="79"/>
+      <c r="CA138" s="80"/>
+    </row>
+    <row r="139" spans="1:79" ht="17.649999999999999" thickTop="1" thickBot="1">
+      <c r="J139" s="141" t="s">
         <v>496</v>
       </c>
-      <c r="K139" s="155" t="s">
+      <c r="K139" s="142" t="s">
         <v>300</v>
       </c>
-      <c r="L139" s="155" t="s">
-        <v>603</v>
-      </c>
-      <c r="M139" s="155" t="s">
+      <c r="L139" s="142" t="s">
+        <v>585</v>
+      </c>
+      <c r="M139" s="142" t="s">
         <v>500</v>
       </c>
-      <c r="N139" s="156" t="s">
-        <v>607</v>
-      </c>
-      <c r="Q139" s="189"/>
-      <c r="R139" s="190"/>
-      <c r="S139" s="190"/>
-      <c r="T139" s="190"/>
-      <c r="U139" s="190"/>
-      <c r="V139" s="190"/>
-      <c r="W139" s="190"/>
-      <c r="X139" s="190"/>
-      <c r="Z139" s="190"/>
-      <c r="AA139" s="190"/>
-      <c r="AB139" s="190"/>
-      <c r="AC139" s="190"/>
-      <c r="AD139" s="190"/>
-      <c r="AE139" s="190"/>
-      <c r="AF139" s="190"/>
-      <c r="AG139" s="190"/>
-      <c r="AH139" s="190"/>
-      <c r="AI139" s="190"/>
-      <c r="AJ139" s="190"/>
-      <c r="AK139" s="190"/>
-      <c r="AL139" s="190"/>
-      <c r="AM139" s="190"/>
-      <c r="AN139" s="190"/>
-      <c r="AO139" s="190" t="s">
-        <v>678</v>
-      </c>
-      <c r="AP139" s="190"/>
-      <c r="AQ139" s="190"/>
-      <c r="AR139" s="190"/>
-      <c r="AS139" s="190"/>
-      <c r="AT139" s="190"/>
-      <c r="AU139" s="190"/>
-      <c r="AV139" s="89"/>
-    </row>
-    <row r="140" spans="1:48" ht="17.5" thickBot="1">
-      <c r="J140" s="157" t="s">
+      <c r="N139" s="143" t="s">
+        <v>589</v>
+      </c>
+      <c r="Q139" s="163"/>
+      <c r="R139" s="79"/>
+      <c r="S139" s="79"/>
+      <c r="T139" s="79"/>
+      <c r="U139" s="79"/>
+      <c r="V139" s="79"/>
+      <c r="W139" s="79"/>
+      <c r="X139" s="79"/>
+      <c r="Y139" s="79"/>
+      <c r="Z139" s="79"/>
+      <c r="AA139" s="79"/>
+      <c r="AB139" s="79"/>
+      <c r="AC139" s="79"/>
+      <c r="AD139" s="79"/>
+      <c r="AE139" s="79"/>
+      <c r="AF139" s="79"/>
+      <c r="AG139" s="79"/>
+      <c r="AH139" s="79"/>
+      <c r="AI139" s="79"/>
+      <c r="AJ139" s="79"/>
+      <c r="AK139" s="79"/>
+      <c r="AL139" s="79"/>
+      <c r="AM139" s="79"/>
+      <c r="AN139" s="79"/>
+      <c r="AO139" s="79"/>
+      <c r="AP139" s="79"/>
+      <c r="AQ139" s="79"/>
+      <c r="AR139" s="79"/>
+      <c r="AS139" s="79"/>
+      <c r="AT139" s="80"/>
+      <c r="AV139" s="163"/>
+      <c r="AW139" s="79"/>
+      <c r="AX139" s="79"/>
+      <c r="AY139" s="79"/>
+      <c r="AZ139" s="79"/>
+      <c r="BA139" s="79"/>
+      <c r="BB139" s="79"/>
+      <c r="BC139" s="79"/>
+      <c r="BD139" s="165"/>
+      <c r="BE139" s="79"/>
+      <c r="BF139" s="79"/>
+      <c r="BG139" s="79"/>
+      <c r="BH139" s="79"/>
+      <c r="BI139" s="79"/>
+      <c r="BJ139" s="79"/>
+      <c r="BK139" s="80"/>
+      <c r="BM139" s="163"/>
+      <c r="BN139" s="79"/>
+      <c r="BO139" s="79"/>
+      <c r="BP139" s="79"/>
+      <c r="BQ139" s="79"/>
+      <c r="BR139" s="79"/>
+      <c r="BS139" s="79"/>
+      <c r="BT139" s="79"/>
+      <c r="BU139" s="79"/>
+      <c r="BV139" s="79"/>
+      <c r="BW139" s="79"/>
+      <c r="BX139" s="79"/>
+      <c r="BY139" s="79"/>
+      <c r="BZ139" s="79"/>
+      <c r="CA139" s="80"/>
+    </row>
+    <row r="140" spans="1:79" ht="17.25" thickBot="1">
+      <c r="J140" s="144" t="s">
         <v>497</v>
       </c>
-      <c r="K140" s="158" t="s">
+      <c r="K140" s="145" t="s">
         <v>300</v>
       </c>
-      <c r="L140" s="158" t="s">
+      <c r="L140" s="145" t="s">
         <v>501</v>
       </c>
-      <c r="M140" s="158"/>
-      <c r="N140" s="159" t="s">
-        <v>607</v>
-      </c>
-      <c r="Q140" s="189"/>
-      <c r="R140" s="190"/>
-      <c r="S140" s="190"/>
-      <c r="T140" s="190"/>
-      <c r="U140" s="190"/>
-      <c r="V140" s="190"/>
-      <c r="W140" s="190"/>
-      <c r="X140" s="190"/>
-      <c r="Z140" s="190"/>
-      <c r="AA140" s="190"/>
-      <c r="AB140" s="190"/>
-      <c r="AC140" s="190"/>
-      <c r="AD140" s="190"/>
-      <c r="AE140" s="190"/>
-      <c r="AF140" s="190"/>
-      <c r="AG140" s="190"/>
-      <c r="AH140" s="190"/>
-      <c r="AI140" s="190"/>
-      <c r="AJ140" s="190"/>
-      <c r="AK140" s="190"/>
-      <c r="AL140" s="190"/>
-      <c r="AM140" s="190"/>
-      <c r="AN140" s="190"/>
-      <c r="AO140" s="190" t="s">
-        <v>680</v>
-      </c>
-      <c r="AP140" s="190"/>
-      <c r="AQ140" s="190"/>
-      <c r="AR140" s="190"/>
-      <c r="AS140" s="190"/>
-      <c r="AT140" s="190"/>
-      <c r="AU140" s="190"/>
-      <c r="AV140" s="89"/>
-    </row>
-    <row r="141" spans="1:48" ht="18" thickTop="1" thickBot="1">
-      <c r="J141" s="151" t="s">
+      <c r="M140" s="145"/>
+      <c r="N140" s="146" t="s">
+        <v>589</v>
+      </c>
+      <c r="Q140" s="163"/>
+      <c r="R140" s="79"/>
+      <c r="S140" s="79"/>
+      <c r="T140" s="79"/>
+      <c r="U140" s="79"/>
+      <c r="V140" s="79"/>
+      <c r="W140" s="79"/>
+      <c r="X140" s="79"/>
+      <c r="Y140" s="79"/>
+      <c r="Z140" s="79"/>
+      <c r="AA140" s="79"/>
+      <c r="AB140" s="79"/>
+      <c r="AC140" s="79"/>
+      <c r="AD140" s="79"/>
+      <c r="AE140" s="79"/>
+      <c r="AF140" s="79"/>
+      <c r="AG140" s="79"/>
+      <c r="AH140" s="79"/>
+      <c r="AI140" s="79"/>
+      <c r="AJ140" s="79"/>
+      <c r="AK140" s="79"/>
+      <c r="AL140" s="79"/>
+      <c r="AM140" s="79"/>
+      <c r="AN140" s="79"/>
+      <c r="AO140" s="79"/>
+      <c r="AP140" s="79"/>
+      <c r="AQ140" s="79"/>
+      <c r="AR140" s="79"/>
+      <c r="AS140" s="79"/>
+      <c r="AT140" s="80"/>
+      <c r="AV140" s="163"/>
+      <c r="AW140" s="79"/>
+      <c r="AX140" s="79"/>
+      <c r="AY140" s="79"/>
+      <c r="AZ140" s="79"/>
+      <c r="BA140" s="79"/>
+      <c r="BB140" s="79"/>
+      <c r="BC140" s="79"/>
+      <c r="BD140" s="165" t="s">
+        <v>664</v>
+      </c>
+      <c r="BE140" s="79"/>
+      <c r="BF140" s="79"/>
+      <c r="BG140" s="79"/>
+      <c r="BH140" s="79"/>
+      <c r="BI140" s="79"/>
+      <c r="BJ140" s="79"/>
+      <c r="BK140" s="80"/>
+      <c r="BM140" s="163"/>
+      <c r="BN140" s="79"/>
+      <c r="BO140" s="79"/>
+      <c r="BP140" s="79"/>
+      <c r="BQ140" s="79"/>
+      <c r="BR140" s="79"/>
+      <c r="BS140" s="79"/>
+      <c r="BT140" s="79"/>
+      <c r="BU140" s="79"/>
+      <c r="BV140" s="79"/>
+      <c r="BW140" s="79"/>
+      <c r="BX140" s="79"/>
+      <c r="BY140" s="79"/>
+      <c r="BZ140" s="79"/>
+      <c r="CA140" s="80"/>
+    </row>
+    <row r="141" spans="1:79" ht="17.649999999999999" thickTop="1" thickBot="1">
+      <c r="J141" s="138" t="s">
         <v>498</v>
       </c>
-      <c r="K141" s="152" t="s">
+      <c r="K141" s="139" t="s">
         <v>350</v>
       </c>
-      <c r="L141" s="153" t="s">
+      <c r="L141" s="140" t="s">
         <v>560</v>
       </c>
-      <c r="M141" s="153" t="s">
+      <c r="M141" s="140" t="s">
+        <v>653</v>
+      </c>
+      <c r="N141" s="147" t="s">
+        <v>589</v>
+      </c>
+      <c r="Q141" s="163"/>
+      <c r="R141" s="79"/>
+      <c r="S141" s="79"/>
+      <c r="T141" s="79"/>
+      <c r="U141" s="79"/>
+      <c r="V141" s="79"/>
+      <c r="W141" s="79"/>
+      <c r="X141" s="79"/>
+      <c r="Y141" s="79"/>
+      <c r="Z141" s="79"/>
+      <c r="AA141" s="79"/>
+      <c r="AB141" s="79"/>
+      <c r="AC141" s="79"/>
+      <c r="AD141" s="79"/>
+      <c r="AE141" s="79"/>
+      <c r="AF141" s="79"/>
+      <c r="AG141" s="79"/>
+      <c r="AH141" s="79"/>
+      <c r="AI141" s="79"/>
+      <c r="AJ141" s="79"/>
+      <c r="AK141" s="79"/>
+      <c r="AL141" s="79"/>
+      <c r="AM141" s="79"/>
+      <c r="AN141" s="79"/>
+      <c r="AO141" s="79"/>
+      <c r="AP141" s="79"/>
+      <c r="AQ141" s="79"/>
+      <c r="AR141" s="79"/>
+      <c r="AS141" s="79"/>
+      <c r="AT141" s="80"/>
+      <c r="AV141" s="163"/>
+      <c r="AW141" s="79"/>
+      <c r="AX141" s="79"/>
+      <c r="AY141" s="79"/>
+      <c r="AZ141" s="79"/>
+      <c r="BA141" s="79"/>
+      <c r="BB141" s="79"/>
+      <c r="BC141" s="79"/>
+      <c r="BD141" s="79" t="s">
+        <v>661</v>
+      </c>
+      <c r="BE141" s="79"/>
+      <c r="BF141" s="79"/>
+      <c r="BG141" s="79"/>
+      <c r="BH141" s="79"/>
+      <c r="BI141" s="79"/>
+      <c r="BJ141" s="79"/>
+      <c r="BK141" s="80"/>
+      <c r="BM141" s="163"/>
+      <c r="BN141" s="79"/>
+      <c r="BO141" s="79"/>
+      <c r="BP141" s="79"/>
+      <c r="BQ141" s="79"/>
+      <c r="BR141" s="79"/>
+      <c r="BS141" s="79"/>
+      <c r="BT141" s="79"/>
+      <c r="BU141" s="79"/>
+      <c r="BV141" s="79"/>
+      <c r="BW141" s="79"/>
+      <c r="BX141" s="79"/>
+      <c r="BY141" s="79"/>
+      <c r="BZ141" s="79"/>
+      <c r="CA141" s="80"/>
+    </row>
+    <row r="142" spans="1:79" ht="17.25" thickBot="1">
+      <c r="J142" s="148" t="s">
+        <v>499</v>
+      </c>
+      <c r="K142" s="149" t="s">
+        <v>351</v>
+      </c>
+      <c r="L142" s="150" t="s">
+        <v>586</v>
+      </c>
+      <c r="M142" s="150" t="s">
+        <v>591</v>
+      </c>
+      <c r="N142" s="151" t="s">
+        <v>589</v>
+      </c>
+      <c r="Q142" s="163"/>
+      <c r="R142" s="79"/>
+      <c r="S142" s="79"/>
+      <c r="T142" s="79"/>
+      <c r="U142" s="79"/>
+      <c r="V142" s="79"/>
+      <c r="W142" s="79"/>
+      <c r="X142" s="79"/>
+      <c r="Y142" s="79"/>
+      <c r="Z142" s="79"/>
+      <c r="AA142" s="79"/>
+      <c r="AB142" s="79"/>
+      <c r="AC142" s="79"/>
+      <c r="AD142" s="79"/>
+      <c r="AE142" s="79"/>
+      <c r="AF142" s="79"/>
+      <c r="AG142" s="79"/>
+      <c r="AH142" s="79"/>
+      <c r="AI142" s="79"/>
+      <c r="AJ142" s="79"/>
+      <c r="AK142" s="79"/>
+      <c r="AL142" s="79"/>
+      <c r="AM142" s="79"/>
+      <c r="AN142" s="79"/>
+      <c r="AO142" s="79" t="s">
+        <v>659</v>
+      </c>
+      <c r="AP142" s="79"/>
+      <c r="AQ142" s="79"/>
+      <c r="AR142" s="79"/>
+      <c r="AS142" s="79"/>
+      <c r="AT142" s="80"/>
+      <c r="AV142" s="163"/>
+      <c r="AW142" s="79"/>
+      <c r="AX142" s="79"/>
+      <c r="AY142" s="79"/>
+      <c r="AZ142" s="79"/>
+      <c r="BA142" s="79"/>
+      <c r="BB142" s="79"/>
+      <c r="BC142" s="79"/>
+      <c r="BD142" s="79" t="s">
+        <v>662</v>
+      </c>
+      <c r="BE142" s="79"/>
+      <c r="BF142" s="79"/>
+      <c r="BG142" s="79"/>
+      <c r="BH142" s="79"/>
+      <c r="BI142" s="79"/>
+      <c r="BJ142" s="79"/>
+      <c r="BK142" s="80"/>
+      <c r="BM142" s="163"/>
+      <c r="BN142" s="79"/>
+      <c r="BO142" s="79"/>
+      <c r="BP142" s="79"/>
+      <c r="BQ142" s="79"/>
+      <c r="BR142" s="79"/>
+      <c r="BS142" s="79"/>
+      <c r="BT142" s="79"/>
+      <c r="BU142" s="79"/>
+      <c r="BV142" s="79"/>
+      <c r="BW142" s="79"/>
+      <c r="BX142" s="79"/>
+      <c r="BY142" s="79"/>
+      <c r="BZ142" s="79"/>
+      <c r="CA142" s="80"/>
+    </row>
+    <row r="143" spans="1:79" ht="17.649999999999999" thickTop="1" thickBot="1">
+      <c r="J143" s="152" t="s">
+        <v>636</v>
+      </c>
+      <c r="K143" s="153" t="s">
+        <v>7</v>
+      </c>
+      <c r="L143" s="153" t="s">
+        <v>654</v>
+      </c>
+      <c r="M143" s="153" t="s">
+        <v>657</v>
+      </c>
+      <c r="N143" s="154" t="s">
+        <v>655</v>
+      </c>
+      <c r="Q143" s="163"/>
+      <c r="R143" s="79"/>
+      <c r="S143" s="79"/>
+      <c r="T143" s="79"/>
+      <c r="U143" s="79"/>
+      <c r="V143" s="79"/>
+      <c r="W143" s="79"/>
+      <c r="X143" s="79"/>
+      <c r="Y143" s="79"/>
+      <c r="Z143" s="79"/>
+      <c r="AA143" s="79"/>
+      <c r="AB143" s="79"/>
+      <c r="AC143" s="79"/>
+      <c r="AD143" s="79"/>
+      <c r="AE143" s="79"/>
+      <c r="AF143" s="79"/>
+      <c r="AG143" s="79"/>
+      <c r="AH143" s="79"/>
+      <c r="AI143" s="79"/>
+      <c r="AJ143" s="79"/>
+      <c r="AK143" s="79"/>
+      <c r="AL143" s="79"/>
+      <c r="AM143" s="79"/>
+      <c r="AN143" s="79"/>
+      <c r="AO143" s="79" t="s">
+        <v>658</v>
+      </c>
+      <c r="AP143" s="79"/>
+      <c r="AQ143" s="79"/>
+      <c r="AR143" s="79"/>
+      <c r="AS143" s="79"/>
+      <c r="AT143" s="80"/>
+      <c r="AV143" s="163"/>
+      <c r="AW143" s="79"/>
+      <c r="AX143" s="79"/>
+      <c r="AY143" s="79"/>
+      <c r="AZ143" s="79"/>
+      <c r="BA143" s="79"/>
+      <c r="BB143" s="79"/>
+      <c r="BC143" s="79"/>
+      <c r="BD143" s="79" t="s">
+        <v>663</v>
+      </c>
+      <c r="BE143" s="79"/>
+      <c r="BF143" s="79"/>
+      <c r="BG143" s="79"/>
+      <c r="BH143" s="79"/>
+      <c r="BI143" s="79"/>
+      <c r="BJ143" s="79"/>
+      <c r="BK143" s="80"/>
+      <c r="BM143" s="163"/>
+      <c r="BN143" s="79"/>
+      <c r="BO143" s="79"/>
+      <c r="BP143" s="79"/>
+      <c r="BQ143" s="79"/>
+      <c r="BR143" s="79"/>
+      <c r="BS143" s="79"/>
+      <c r="BT143" s="79"/>
+      <c r="BU143" s="79"/>
+      <c r="BV143" s="165" t="s">
+        <v>672</v>
+      </c>
+      <c r="BW143" s="79"/>
+      <c r="BX143" s="79"/>
+      <c r="BY143" s="79"/>
+      <c r="BZ143" s="79"/>
+      <c r="CA143" s="80"/>
+    </row>
+    <row r="144" spans="1:79" ht="17.25" thickTop="1">
+      <c r="Q144" s="163"/>
+      <c r="R144" s="79"/>
+      <c r="S144" s="79"/>
+      <c r="T144" s="79"/>
+      <c r="U144" s="79"/>
+      <c r="V144" s="79"/>
+      <c r="W144" s="79"/>
+      <c r="X144" s="79"/>
+      <c r="Y144" s="79"/>
+      <c r="Z144" s="79"/>
+      <c r="AA144" s="79"/>
+      <c r="AB144" s="79"/>
+      <c r="AC144" s="79"/>
+      <c r="AD144" s="79"/>
+      <c r="AE144" s="79"/>
+      <c r="AF144" s="79"/>
+      <c r="AG144" s="79"/>
+      <c r="AH144" s="79"/>
+      <c r="AI144" s="79"/>
+      <c r="AJ144" s="79"/>
+      <c r="AK144" s="79"/>
+      <c r="AL144" s="79"/>
+      <c r="AM144" s="79"/>
+      <c r="AN144" s="79"/>
+      <c r="AO144" s="79" t="s">
+        <v>660</v>
+      </c>
+      <c r="AP144" s="79"/>
+      <c r="AQ144" s="79"/>
+      <c r="AR144" s="79"/>
+      <c r="AS144" s="79"/>
+      <c r="AT144" s="80"/>
+      <c r="AV144" s="163"/>
+      <c r="AW144" s="79"/>
+      <c r="AX144" s="79"/>
+      <c r="AY144" s="79"/>
+      <c r="AZ144" s="79"/>
+      <c r="BA144" s="79"/>
+      <c r="BB144" s="79"/>
+      <c r="BC144" s="79"/>
+      <c r="BD144" s="165" t="s">
+        <v>667</v>
+      </c>
+      <c r="BE144" s="79"/>
+      <c r="BF144" s="79"/>
+      <c r="BG144" s="79"/>
+      <c r="BH144" s="79"/>
+      <c r="BI144" s="79"/>
+      <c r="BJ144" s="79"/>
+      <c r="BK144" s="80"/>
+      <c r="BM144" s="163"/>
+      <c r="BN144" s="79"/>
+      <c r="BO144" s="79"/>
+      <c r="BP144" s="79"/>
+      <c r="BQ144" s="79"/>
+      <c r="BR144" s="79"/>
+      <c r="BS144" s="79"/>
+      <c r="BT144" s="79"/>
+      <c r="BU144" s="79"/>
+      <c r="BV144" s="165" t="s">
         <v>673</v>
       </c>
-      <c r="N141" s="160" t="s">
-        <v>607</v>
-      </c>
-      <c r="Q141" s="189"/>
-      <c r="R141" s="190"/>
-      <c r="S141" s="190"/>
-      <c r="T141" s="190"/>
-      <c r="U141" s="190"/>
-      <c r="V141" s="190"/>
-      <c r="W141" s="190"/>
-      <c r="X141" s="190"/>
-      <c r="Z141" s="190"/>
-      <c r="AA141" s="190"/>
-      <c r="AB141" s="190"/>
-      <c r="AC141" s="190"/>
-      <c r="AD141" s="190"/>
-      <c r="AE141" s="190"/>
-      <c r="AF141" s="190"/>
-      <c r="AG141" s="190"/>
-      <c r="AH141" s="190"/>
-      <c r="AI141" s="190"/>
-      <c r="AJ141" s="190"/>
-      <c r="AK141" s="190"/>
-      <c r="AL141" s="190"/>
-      <c r="AM141" s="190"/>
-      <c r="AN141" s="190"/>
-      <c r="AO141" s="190" t="s">
-        <v>681</v>
-      </c>
-      <c r="AP141" s="190"/>
-      <c r="AQ141" s="190"/>
-      <c r="AR141" s="190"/>
-      <c r="AS141" s="190"/>
-      <c r="AT141" s="190"/>
-      <c r="AU141" s="190"/>
-      <c r="AV141" s="89"/>
-    </row>
-    <row r="142" spans="1:48" ht="17.5" thickBot="1">
-      <c r="J142" s="161" t="s">
-        <v>499</v>
-      </c>
-      <c r="K142" s="162" t="s">
-        <v>351</v>
-      </c>
-      <c r="L142" s="163" t="s">
-        <v>604</v>
-      </c>
-      <c r="M142" s="163" t="s">
-        <v>609</v>
-      </c>
-      <c r="N142" s="164" t="s">
-        <v>607</v>
-      </c>
-      <c r="Q142" s="189"/>
-      <c r="R142" s="190"/>
-      <c r="S142" s="190"/>
-      <c r="T142" s="190"/>
-      <c r="U142" s="190"/>
-      <c r="V142" s="190"/>
-      <c r="W142" s="190"/>
-      <c r="X142" s="190"/>
-      <c r="Z142" s="190"/>
-      <c r="AA142" s="190"/>
-      <c r="AB142" s="190"/>
-      <c r="AC142" s="190"/>
-      <c r="AD142" s="190"/>
-      <c r="AE142" s="190"/>
-      <c r="AF142" s="190"/>
-      <c r="AG142" s="190"/>
-      <c r="AH142" s="190"/>
-      <c r="AI142" s="190"/>
-      <c r="AJ142" s="190"/>
-      <c r="AK142" s="190"/>
-      <c r="AL142" s="190"/>
-      <c r="AM142" s="190"/>
-      <c r="AN142" s="190"/>
-      <c r="AO142" s="190"/>
-      <c r="AP142" s="190"/>
-      <c r="AQ142" s="190"/>
-      <c r="AR142" s="190"/>
-      <c r="AS142" s="190"/>
-      <c r="AT142" s="190"/>
-      <c r="AU142" s="190"/>
-      <c r="AV142" s="89"/>
-    </row>
-    <row r="143" spans="1:48" ht="18" thickTop="1" thickBot="1">
-      <c r="J143" s="165" t="s">
-        <v>654</v>
-      </c>
-      <c r="K143" s="166" t="s">
-        <v>7</v>
-      </c>
-      <c r="L143" s="166" t="s">
-        <v>674</v>
-      </c>
-      <c r="M143" s="166" t="s">
-        <v>677</v>
-      </c>
-      <c r="N143" s="167" t="s">
-        <v>675</v>
-      </c>
-      <c r="Q143" s="189"/>
-      <c r="R143" s="190"/>
-      <c r="S143" s="190"/>
-      <c r="T143" s="190"/>
-      <c r="U143" s="190"/>
-      <c r="V143" s="190"/>
-      <c r="W143" s="190"/>
-      <c r="X143" s="190"/>
-      <c r="Z143" s="190"/>
-      <c r="AA143" s="190"/>
-      <c r="AB143" s="190"/>
-      <c r="AC143" s="190"/>
-      <c r="AD143" s="190"/>
-      <c r="AE143" s="190"/>
-      <c r="AF143" s="190"/>
-      <c r="AG143" s="190"/>
-      <c r="AH143" s="190"/>
-      <c r="AI143" s="190"/>
-      <c r="AJ143" s="190"/>
-      <c r="AK143" s="190"/>
-      <c r="AL143" s="190"/>
-      <c r="AM143" s="190"/>
-      <c r="AN143" s="190"/>
-      <c r="AO143" s="191" t="s">
-        <v>687</v>
-      </c>
-      <c r="AP143" s="190"/>
-      <c r="AQ143" s="190"/>
-      <c r="AR143" s="190"/>
-      <c r="AS143" s="190"/>
-      <c r="AT143" s="190"/>
-      <c r="AU143" s="190"/>
-      <c r="AV143" s="89"/>
-    </row>
-    <row r="144" spans="1:48" ht="17.5" thickTop="1">
-      <c r="Q144" s="189"/>
-      <c r="R144" s="190"/>
-      <c r="S144" s="190"/>
-      <c r="T144" s="190"/>
-      <c r="U144" s="190"/>
-      <c r="V144" s="190"/>
-      <c r="W144" s="190"/>
-      <c r="X144" s="190"/>
-      <c r="Z144" s="190"/>
-      <c r="AA144" s="190"/>
-      <c r="AB144" s="190"/>
-      <c r="AC144" s="190"/>
-      <c r="AD144" s="190"/>
-      <c r="AE144" s="190"/>
-      <c r="AF144" s="190"/>
-      <c r="AG144" s="190"/>
-      <c r="AH144" s="190"/>
-      <c r="AI144" s="190"/>
-      <c r="AJ144" s="190"/>
-      <c r="AK144" s="190"/>
-      <c r="AL144" s="190"/>
-      <c r="AM144" s="190"/>
-      <c r="AN144" s="190"/>
-      <c r="AO144" s="190" t="s">
-        <v>682</v>
-      </c>
-      <c r="AP144" s="190"/>
-      <c r="AQ144" s="190"/>
-      <c r="AR144" s="190"/>
-      <c r="AS144" s="190"/>
-      <c r="AT144" s="190"/>
-      <c r="AU144" s="190"/>
-      <c r="AV144" s="89"/>
-    </row>
-    <row r="145" spans="1:48">
-      <c r="Q145" s="189"/>
-      <c r="R145" s="190"/>
-      <c r="S145" s="190"/>
-      <c r="T145" s="190"/>
-      <c r="U145" s="190"/>
-      <c r="V145" s="190"/>
-      <c r="W145" s="190"/>
-      <c r="X145" s="190"/>
-      <c r="Z145" s="190"/>
-      <c r="AA145" s="190"/>
-      <c r="AB145" s="190"/>
-      <c r="AC145" s="190"/>
-      <c r="AD145" s="190"/>
-      <c r="AE145" s="190"/>
-      <c r="AF145" s="190"/>
-      <c r="AG145" s="190"/>
-      <c r="AH145" s="190"/>
-      <c r="AI145" s="190"/>
-      <c r="AJ145" s="190"/>
-      <c r="AK145" s="190"/>
-      <c r="AL145" s="190"/>
-      <c r="AM145" s="190"/>
-      <c r="AN145" s="190"/>
-      <c r="AO145" s="190" t="s">
-        <v>683</v>
-      </c>
-      <c r="AP145" s="190"/>
-      <c r="AQ145" s="190"/>
-      <c r="AR145" s="190"/>
-      <c r="AS145" s="190"/>
-      <c r="AT145" s="190"/>
-      <c r="AU145" s="190"/>
-      <c r="AV145" s="89"/>
-    </row>
-    <row r="146" spans="1:48">
-      <c r="Q146" s="189"/>
-      <c r="R146" s="190"/>
-      <c r="S146" s="190"/>
-      <c r="T146" s="190"/>
-      <c r="U146" s="190"/>
-      <c r="V146" s="190"/>
-      <c r="W146" s="190"/>
-      <c r="X146" s="190"/>
-      <c r="Z146" s="190"/>
-      <c r="AA146" s="190"/>
-      <c r="AB146" s="190"/>
-      <c r="AC146" s="190"/>
-      <c r="AD146" s="190"/>
-      <c r="AE146" s="190"/>
-      <c r="AF146" s="190"/>
-      <c r="AG146" s="190"/>
-      <c r="AH146" s="190"/>
-      <c r="AI146" s="190"/>
-      <c r="AJ146" s="190"/>
-      <c r="AK146" s="190"/>
-      <c r="AL146" s="190"/>
-      <c r="AM146" s="190"/>
-      <c r="AN146" s="190"/>
-      <c r="AO146" s="190" t="s">
-        <v>684</v>
-      </c>
-      <c r="AP146" s="190"/>
-      <c r="AQ146" s="190"/>
-      <c r="AR146" s="190"/>
-      <c r="AS146" s="190"/>
-      <c r="AT146" s="190"/>
-      <c r="AU146" s="190"/>
-      <c r="AV146" s="89"/>
-    </row>
-    <row r="147" spans="1:48">
-      <c r="Q147" s="189"/>
-      <c r="R147" s="190"/>
-      <c r="S147" s="190"/>
-      <c r="T147" s="190"/>
-      <c r="U147" s="190"/>
-      <c r="V147" s="190"/>
-      <c r="W147" s="190"/>
-      <c r="X147" s="190"/>
-      <c r="Z147" s="190"/>
-      <c r="AA147" s="190"/>
-      <c r="AB147" s="190"/>
-      <c r="AC147" s="190"/>
-      <c r="AD147" s="190"/>
-      <c r="AE147" s="190"/>
-      <c r="AF147" s="190"/>
-      <c r="AG147" s="190"/>
-      <c r="AH147" s="190"/>
-      <c r="AI147" s="190"/>
-      <c r="AJ147" s="190"/>
-      <c r="AK147" s="190"/>
-      <c r="AL147" s="190"/>
-      <c r="AM147" s="190"/>
-      <c r="AN147" s="190"/>
-      <c r="AO147" s="191" t="s">
-        <v>685</v>
-      </c>
-      <c r="AP147" s="190"/>
-      <c r="AQ147" s="190"/>
-      <c r="AR147" s="190"/>
-      <c r="AS147" s="190"/>
-      <c r="AT147" s="190"/>
-      <c r="AU147" s="190"/>
-      <c r="AV147" s="89"/>
-    </row>
-    <row r="148" spans="1:48">
-      <c r="Q148" s="189"/>
-      <c r="R148" s="190"/>
-      <c r="S148" s="190"/>
-      <c r="T148" s="190"/>
-      <c r="U148" s="190"/>
-      <c r="V148" s="190"/>
-      <c r="W148" s="190"/>
-      <c r="X148" s="190"/>
-      <c r="Z148" s="190"/>
-      <c r="AA148" s="190"/>
-      <c r="AB148" s="190"/>
-      <c r="AC148" s="190"/>
-      <c r="AD148" s="190"/>
-      <c r="AE148" s="190"/>
-      <c r="AF148" s="190"/>
-      <c r="AG148" s="190"/>
-      <c r="AH148" s="190"/>
-      <c r="AI148" s="190"/>
-      <c r="AJ148" s="190"/>
-      <c r="AK148" s="190"/>
-      <c r="AL148" s="190"/>
-      <c r="AM148" s="190"/>
-      <c r="AN148" s="190"/>
-      <c r="AO148" s="191" t="s">
-        <v>688</v>
-      </c>
-      <c r="AP148" s="190"/>
-      <c r="AQ148" s="190"/>
-      <c r="AR148" s="190"/>
-      <c r="AS148" s="190"/>
-      <c r="AT148" s="190"/>
-      <c r="AU148" s="190"/>
-      <c r="AV148" s="89"/>
-    </row>
-    <row r="149" spans="1:48">
-      <c r="Q149" s="189"/>
-      <c r="R149" s="190"/>
-      <c r="S149" s="190"/>
-      <c r="T149" s="190"/>
-      <c r="U149" s="190"/>
-      <c r="V149" s="190"/>
-      <c r="W149" s="190"/>
-      <c r="X149" s="190"/>
-      <c r="Z149" s="190"/>
-      <c r="AA149" s="190"/>
-      <c r="AB149" s="190"/>
-      <c r="AC149" s="190"/>
-      <c r="AD149" s="190"/>
-      <c r="AE149" s="190"/>
-      <c r="AF149" s="190"/>
-      <c r="AG149" s="190"/>
-      <c r="AH149" s="190"/>
-      <c r="AI149" s="190"/>
-      <c r="AJ149" s="190"/>
-      <c r="AK149" s="190"/>
-      <c r="AL149" s="190"/>
-      <c r="AM149" s="190"/>
-      <c r="AN149" s="190"/>
-      <c r="AO149" s="193" t="s">
-        <v>686</v>
-      </c>
-      <c r="AP149" s="190"/>
-      <c r="AQ149" s="190"/>
-      <c r="AR149" s="190"/>
-      <c r="AS149" s="190"/>
-      <c r="AT149" s="190"/>
-      <c r="AU149" s="190"/>
-      <c r="AV149" s="89"/>
-    </row>
-    <row r="150" spans="1:48">
-      <c r="Q150" s="189"/>
-      <c r="R150" s="190"/>
-      <c r="S150" s="190"/>
-      <c r="T150" s="190"/>
-      <c r="U150" s="190"/>
-      <c r="V150" s="190"/>
-      <c r="W150" s="190"/>
-      <c r="X150" s="190"/>
-      <c r="Y150" s="190"/>
-      <c r="Z150" s="190"/>
-      <c r="AA150" s="190"/>
-      <c r="AB150" s="190"/>
-      <c r="AC150" s="190"/>
-      <c r="AD150" s="190"/>
-      <c r="AE150" s="190"/>
-      <c r="AF150" s="190"/>
-      <c r="AG150" s="190"/>
-      <c r="AH150" s="190"/>
-      <c r="AI150" s="190"/>
-      <c r="AJ150" s="190"/>
-      <c r="AK150" s="190"/>
-      <c r="AL150" s="190"/>
-      <c r="AM150" s="190"/>
-      <c r="AN150" s="190"/>
-      <c r="AO150" s="193" t="s">
-        <v>689</v>
-      </c>
-      <c r="AP150" s="190"/>
-      <c r="AQ150" s="190"/>
-      <c r="AR150" s="190"/>
-      <c r="AS150" s="190"/>
-      <c r="AT150" s="190"/>
-      <c r="AU150" s="190"/>
-      <c r="AV150" s="89"/>
-    </row>
-    <row r="151" spans="1:48">
-      <c r="Q151" s="189"/>
-      <c r="R151" s="190"/>
-      <c r="S151" s="190"/>
-      <c r="T151" s="190"/>
-      <c r="U151" s="190"/>
-      <c r="V151" s="190"/>
-      <c r="W151" s="190"/>
-      <c r="X151" s="190"/>
-      <c r="Y151" s="190"/>
-      <c r="Z151" s="190"/>
-      <c r="AA151" s="190"/>
-      <c r="AB151" s="190"/>
-      <c r="AC151" s="190"/>
-      <c r="AD151" s="190"/>
-      <c r="AE151" s="190"/>
-      <c r="AF151" s="190"/>
-      <c r="AG151" s="190"/>
-      <c r="AH151" s="190"/>
-      <c r="AI151" s="190"/>
-      <c r="AJ151" s="190"/>
-      <c r="AK151" s="190"/>
-      <c r="AL151" s="190"/>
-      <c r="AM151" s="190"/>
-      <c r="AN151" s="190"/>
-      <c r="AO151" t="s">
-        <v>690</v>
-      </c>
-      <c r="AP151" s="190"/>
-      <c r="AQ151" s="190"/>
-      <c r="AR151" s="190"/>
-      <c r="AS151" s="190"/>
-      <c r="AT151" s="190"/>
-      <c r="AU151" s="190"/>
-      <c r="AV151" s="89"/>
-    </row>
-    <row r="152" spans="1:48">
-      <c r="Q152" s="192"/>
-      <c r="R152" s="90"/>
-      <c r="S152" s="90"/>
-      <c r="T152" s="90"/>
-      <c r="U152" s="90"/>
-      <c r="V152" s="90"/>
-      <c r="W152" s="90"/>
-      <c r="X152" s="90"/>
-      <c r="Y152" s="90"/>
-      <c r="Z152" s="90"/>
-      <c r="AA152" s="90"/>
-      <c r="AB152" s="90"/>
-      <c r="AC152" s="90"/>
-      <c r="AD152" s="90"/>
-      <c r="AE152" s="90"/>
-      <c r="AF152" s="90"/>
-      <c r="AG152" s="90"/>
-      <c r="AH152" s="90"/>
-      <c r="AI152" s="90"/>
-      <c r="AJ152" s="90"/>
-      <c r="AK152" s="90"/>
-      <c r="AL152" s="90"/>
-      <c r="AM152" s="90"/>
-      <c r="AN152" s="90"/>
-      <c r="AO152" s="90" t="s">
-        <v>691</v>
-      </c>
-      <c r="AP152" s="90"/>
-      <c r="AQ152" s="90"/>
-      <c r="AR152" s="90"/>
-      <c r="AS152" s="90"/>
-      <c r="AT152" s="90"/>
-      <c r="AU152" s="90"/>
-      <c r="AV152" s="91"/>
-    </row>
-    <row r="158" spans="1:48">
+      <c r="BW144" s="79"/>
+      <c r="BX144" s="79"/>
+      <c r="BY144" s="79"/>
+      <c r="BZ144" s="79"/>
+      <c r="CA144" s="80"/>
+    </row>
+    <row r="145" spans="1:79">
+      <c r="Q145" s="163"/>
+      <c r="R145" s="79"/>
+      <c r="S145" s="79"/>
+      <c r="T145" s="79"/>
+      <c r="U145" s="79"/>
+      <c r="V145" s="79"/>
+      <c r="W145" s="79"/>
+      <c r="X145" s="79"/>
+      <c r="Y145" s="79"/>
+      <c r="Z145" s="79"/>
+      <c r="AA145" s="79"/>
+      <c r="AB145" s="79"/>
+      <c r="AC145" s="79"/>
+      <c r="AD145" s="79"/>
+      <c r="AE145" s="79"/>
+      <c r="AF145" s="79"/>
+      <c r="AG145" s="79"/>
+      <c r="AH145" s="79"/>
+      <c r="AI145" s="79"/>
+      <c r="AJ145" s="79"/>
+      <c r="AK145" s="79"/>
+      <c r="AL145" s="79"/>
+      <c r="AM145" s="79"/>
+      <c r="AN145" s="79"/>
+      <c r="AO145" s="79" t="s">
+        <v>671</v>
+      </c>
+      <c r="AP145" s="79"/>
+      <c r="AQ145" s="79"/>
+      <c r="AR145" s="79"/>
+      <c r="AS145" s="79"/>
+      <c r="AT145" s="80"/>
+      <c r="AV145" s="163"/>
+      <c r="AW145" s="79"/>
+      <c r="AX145" s="79"/>
+      <c r="AY145" s="79"/>
+      <c r="AZ145" s="79"/>
+      <c r="BA145" s="79"/>
+      <c r="BB145" s="79"/>
+      <c r="BC145" s="79"/>
+      <c r="BD145" s="165" t="s">
+        <v>668</v>
+      </c>
+      <c r="BE145" s="79"/>
+      <c r="BF145" s="79"/>
+      <c r="BG145" s="79"/>
+      <c r="BH145" s="79"/>
+      <c r="BI145" s="79"/>
+      <c r="BJ145" s="79"/>
+      <c r="BK145" s="80"/>
+      <c r="BM145" s="163"/>
+      <c r="BN145" s="79"/>
+      <c r="BO145" s="79"/>
+      <c r="BP145" s="79"/>
+      <c r="BQ145" s="79"/>
+      <c r="BR145" s="79"/>
+      <c r="BS145" s="79"/>
+      <c r="BT145" s="79"/>
+      <c r="BU145" s="79"/>
+      <c r="BV145" s="79"/>
+      <c r="BW145" s="79"/>
+      <c r="BX145" s="79"/>
+      <c r="BY145" s="79"/>
+      <c r="BZ145" s="79"/>
+      <c r="CA145" s="80"/>
+    </row>
+    <row r="146" spans="1:79">
+      <c r="Q146" s="163"/>
+      <c r="R146" s="79"/>
+      <c r="S146" s="79"/>
+      <c r="T146" s="79"/>
+      <c r="U146" s="79"/>
+      <c r="V146" s="79"/>
+      <c r="W146" s="79"/>
+      <c r="X146" s="79"/>
+      <c r="Y146" s="79"/>
+      <c r="Z146" s="79"/>
+      <c r="AA146" s="79"/>
+      <c r="AB146" s="79"/>
+      <c r="AC146" s="79"/>
+      <c r="AD146" s="79"/>
+      <c r="AE146" s="79"/>
+      <c r="AF146" s="79"/>
+      <c r="AG146" s="79"/>
+      <c r="AH146" s="79"/>
+      <c r="AI146" s="79"/>
+      <c r="AJ146" s="79"/>
+      <c r="AK146" s="79"/>
+      <c r="AL146" s="79"/>
+      <c r="AM146" s="79"/>
+      <c r="AN146" s="79"/>
+      <c r="AO146" s="165"/>
+      <c r="AP146" s="79"/>
+      <c r="AQ146" s="79"/>
+      <c r="AR146" s="79"/>
+      <c r="AS146" s="79"/>
+      <c r="AT146" s="80"/>
+      <c r="AV146" s="163"/>
+      <c r="AW146" s="79"/>
+      <c r="AX146" s="79"/>
+      <c r="AY146" s="79"/>
+      <c r="AZ146" s="79"/>
+      <c r="BA146" s="79"/>
+      <c r="BB146" s="79"/>
+      <c r="BC146" s="79"/>
+      <c r="BD146" s="166" t="s">
+        <v>670</v>
+      </c>
+      <c r="BE146" s="79"/>
+      <c r="BF146" s="79"/>
+      <c r="BG146" s="79"/>
+      <c r="BH146" s="79"/>
+      <c r="BI146" s="79"/>
+      <c r="BJ146" s="79"/>
+      <c r="BK146" s="80"/>
+      <c r="BM146" s="163"/>
+      <c r="BN146" s="79"/>
+      <c r="BO146" s="79"/>
+      <c r="BP146" s="79"/>
+      <c r="BQ146" s="79"/>
+      <c r="BR146" s="79"/>
+      <c r="BS146" s="79"/>
+      <c r="BT146" s="79"/>
+      <c r="BU146" s="79"/>
+      <c r="BV146" s="79"/>
+      <c r="BW146" s="79"/>
+      <c r="BX146" s="79"/>
+      <c r="BY146" s="79"/>
+      <c r="BZ146" s="79"/>
+      <c r="CA146" s="80"/>
+    </row>
+    <row r="147" spans="1:79">
+      <c r="Q147" s="163"/>
+      <c r="R147" s="79"/>
+      <c r="S147" s="79"/>
+      <c r="T147" s="79"/>
+      <c r="U147" s="79"/>
+      <c r="V147" s="79"/>
+      <c r="W147" s="79"/>
+      <c r="X147" s="79"/>
+      <c r="Y147" s="79"/>
+      <c r="Z147" s="79"/>
+      <c r="AA147" s="79"/>
+      <c r="AB147" s="79"/>
+      <c r="AC147" s="79"/>
+      <c r="AD147" s="79"/>
+      <c r="AE147" s="79"/>
+      <c r="AF147" s="79"/>
+      <c r="AG147" s="79"/>
+      <c r="AH147" s="79"/>
+      <c r="AI147" s="79"/>
+      <c r="AJ147" s="79"/>
+      <c r="AK147" s="79"/>
+      <c r="AL147" s="79"/>
+      <c r="AM147" s="79"/>
+      <c r="AN147" s="79"/>
+      <c r="AO147" s="165"/>
+      <c r="AP147" s="79"/>
+      <c r="AQ147" s="79"/>
+      <c r="AR147" s="79"/>
+      <c r="AS147" s="79"/>
+      <c r="AT147" s="80"/>
+      <c r="AV147" s="163"/>
+      <c r="AW147" s="79"/>
+      <c r="AX147" s="79"/>
+      <c r="AY147" s="79"/>
+      <c r="AZ147" s="79"/>
+      <c r="BA147" s="79"/>
+      <c r="BB147" s="79"/>
+      <c r="BC147" s="79"/>
+      <c r="BD147" s="166" t="s">
+        <v>669</v>
+      </c>
+      <c r="BE147" s="79"/>
+      <c r="BF147" s="79"/>
+      <c r="BG147" s="79"/>
+      <c r="BH147" s="79"/>
+      <c r="BI147" s="79"/>
+      <c r="BJ147" s="79"/>
+      <c r="BK147" s="80"/>
+      <c r="BM147" s="163"/>
+      <c r="BN147" s="79"/>
+      <c r="BO147" s="79"/>
+      <c r="BP147" s="79"/>
+      <c r="BQ147" s="79"/>
+      <c r="BR147" s="79"/>
+      <c r="BS147" s="79"/>
+      <c r="BT147" s="79"/>
+      <c r="BU147" s="79"/>
+      <c r="BV147" s="79"/>
+      <c r="BW147" s="79"/>
+      <c r="BX147" s="79"/>
+      <c r="BY147" s="79"/>
+      <c r="BZ147" s="79"/>
+      <c r="CA147" s="80"/>
+    </row>
+    <row r="148" spans="1:79">
+      <c r="Q148" s="163"/>
+      <c r="R148" s="79"/>
+      <c r="S148" s="79"/>
+      <c r="T148" s="79"/>
+      <c r="U148" s="79"/>
+      <c r="V148" s="79"/>
+      <c r="W148" s="79"/>
+      <c r="X148" s="79"/>
+      <c r="Y148" s="79"/>
+      <c r="Z148" s="79"/>
+      <c r="AA148" s="79"/>
+      <c r="AB148" s="79"/>
+      <c r="AC148" s="79"/>
+      <c r="AD148" s="79"/>
+      <c r="AE148" s="79"/>
+      <c r="AF148" s="79"/>
+      <c r="AG148" s="79"/>
+      <c r="AH148" s="79"/>
+      <c r="AI148" s="79"/>
+      <c r="AJ148" s="79"/>
+      <c r="AK148" s="79"/>
+      <c r="AL148" s="79"/>
+      <c r="AM148" s="79"/>
+      <c r="AN148" s="79"/>
+      <c r="AO148" s="166"/>
+      <c r="AP148" s="79"/>
+      <c r="AQ148" s="79"/>
+      <c r="AR148" s="79"/>
+      <c r="AS148" s="79"/>
+      <c r="AT148" s="80"/>
+      <c r="AV148" s="163"/>
+      <c r="AW148" s="79"/>
+      <c r="AX148" s="79"/>
+      <c r="AY148" s="79"/>
+      <c r="AZ148" s="79"/>
+      <c r="BA148" s="79"/>
+      <c r="BB148" s="79"/>
+      <c r="BC148" s="79"/>
+      <c r="BD148" s="79" t="s">
+        <v>665</v>
+      </c>
+      <c r="BE148" s="79"/>
+      <c r="BF148" s="79"/>
+      <c r="BG148" s="79"/>
+      <c r="BH148" s="79"/>
+      <c r="BI148" s="79"/>
+      <c r="BJ148" s="79"/>
+      <c r="BK148" s="80"/>
+      <c r="BM148" s="163"/>
+      <c r="BN148" s="79"/>
+      <c r="BO148" s="79"/>
+      <c r="BP148" s="79"/>
+      <c r="BQ148" s="79"/>
+      <c r="BR148" s="79"/>
+      <c r="BS148" s="79"/>
+      <c r="BT148" s="79"/>
+      <c r="BU148" s="79"/>
+      <c r="BV148" s="79"/>
+      <c r="BW148" s="79"/>
+      <c r="BX148" s="79"/>
+      <c r="BY148" s="79"/>
+      <c r="BZ148" s="79"/>
+      <c r="CA148" s="80"/>
+    </row>
+    <row r="149" spans="1:79">
+      <c r="Q149" s="163"/>
+      <c r="R149" s="79"/>
+      <c r="S149" s="79"/>
+      <c r="T149" s="79"/>
+      <c r="U149" s="79"/>
+      <c r="V149" s="79"/>
+      <c r="W149" s="79"/>
+      <c r="X149" s="79"/>
+      <c r="Y149" s="79"/>
+      <c r="Z149" s="79"/>
+      <c r="AA149" s="79"/>
+      <c r="AB149" s="79"/>
+      <c r="AC149" s="79"/>
+      <c r="AD149" s="79"/>
+      <c r="AE149" s="79"/>
+      <c r="AF149" s="79"/>
+      <c r="AG149" s="79"/>
+      <c r="AH149" s="79"/>
+      <c r="AI149" s="79"/>
+      <c r="AJ149" s="79"/>
+      <c r="AK149" s="79"/>
+      <c r="AL149" s="79"/>
+      <c r="AM149" s="79"/>
+      <c r="AN149" s="79"/>
+      <c r="AO149" s="166"/>
+      <c r="AP149" s="79"/>
+      <c r="AQ149" s="79"/>
+      <c r="AR149" s="79"/>
+      <c r="AS149" s="79"/>
+      <c r="AT149" s="80"/>
+      <c r="AV149" s="163"/>
+      <c r="AW149" s="79"/>
+      <c r="AX149" s="79"/>
+      <c r="AY149" s="79"/>
+      <c r="AZ149" s="79"/>
+      <c r="BA149" s="79"/>
+      <c r="BB149" s="79"/>
+      <c r="BC149" s="79"/>
+      <c r="BD149" s="79" t="s">
+        <v>666</v>
+      </c>
+      <c r="BE149" s="79"/>
+      <c r="BF149" s="79"/>
+      <c r="BG149" s="79"/>
+      <c r="BH149" s="79"/>
+      <c r="BI149" s="79"/>
+      <c r="BJ149" s="79"/>
+      <c r="BK149" s="80"/>
+      <c r="BM149" s="163"/>
+      <c r="BN149" s="79"/>
+      <c r="BO149" s="79"/>
+      <c r="BP149" s="79"/>
+      <c r="BQ149" s="79"/>
+      <c r="BR149" s="79"/>
+      <c r="BS149" s="79"/>
+      <c r="BT149" s="79"/>
+      <c r="BU149" s="79"/>
+      <c r="BV149" s="79"/>
+      <c r="BW149" s="79"/>
+      <c r="BX149" s="79"/>
+      <c r="BY149" s="79"/>
+      <c r="BZ149" s="79"/>
+      <c r="CA149" s="80"/>
+    </row>
+    <row r="150" spans="1:79">
+      <c r="Q150" s="163"/>
+      <c r="R150" s="79"/>
+      <c r="S150" s="79"/>
+      <c r="T150" s="79"/>
+      <c r="U150" s="79"/>
+      <c r="V150" s="79"/>
+      <c r="W150" s="79"/>
+      <c r="X150" s="79"/>
+      <c r="Y150" s="79"/>
+      <c r="Z150" s="79"/>
+      <c r="AA150" s="79"/>
+      <c r="AB150" s="79"/>
+      <c r="AC150" s="79"/>
+      <c r="AD150" s="79"/>
+      <c r="AE150" s="79"/>
+      <c r="AF150" s="79"/>
+      <c r="AG150" s="79"/>
+      <c r="AH150" s="79"/>
+      <c r="AI150" s="79"/>
+      <c r="AJ150" s="79"/>
+      <c r="AK150" s="79"/>
+      <c r="AL150" s="79"/>
+      <c r="AM150" s="79"/>
+      <c r="AN150" s="79"/>
+      <c r="AP150" s="79"/>
+      <c r="AQ150" s="79"/>
+      <c r="AR150" s="79"/>
+      <c r="AS150" s="79"/>
+      <c r="AT150" s="80"/>
+      <c r="AV150" s="163"/>
+      <c r="AW150" s="79"/>
+      <c r="AX150" s="79"/>
+      <c r="AY150" s="79"/>
+      <c r="AZ150" s="79"/>
+      <c r="BA150" s="79"/>
+      <c r="BB150" s="79"/>
+      <c r="BC150" s="79"/>
+      <c r="BD150" s="79"/>
+      <c r="BE150" s="79"/>
+      <c r="BF150" s="79"/>
+      <c r="BG150" s="79"/>
+      <c r="BH150" s="79"/>
+      <c r="BI150" s="79"/>
+      <c r="BJ150" s="79"/>
+      <c r="BK150" s="80"/>
+      <c r="BM150" s="163"/>
+      <c r="BN150" s="79"/>
+      <c r="BO150" s="79"/>
+      <c r="BP150" s="79"/>
+      <c r="BQ150" s="79"/>
+      <c r="BR150" s="79"/>
+      <c r="BS150" s="79"/>
+      <c r="BT150" s="79"/>
+      <c r="BU150" s="79"/>
+      <c r="BV150" s="79"/>
+      <c r="BW150" s="79"/>
+      <c r="BX150" s="79"/>
+      <c r="BY150" s="79"/>
+      <c r="BZ150" s="79"/>
+      <c r="CA150" s="80"/>
+    </row>
+    <row r="151" spans="1:79">
+      <c r="Q151" s="163"/>
+      <c r="R151" s="79"/>
+      <c r="S151" s="79"/>
+      <c r="T151" s="79"/>
+      <c r="U151" s="79"/>
+      <c r="V151" s="79"/>
+      <c r="W151" s="79"/>
+      <c r="X151" s="79"/>
+      <c r="Y151" s="79"/>
+      <c r="Z151" s="79"/>
+      <c r="AA151" s="79"/>
+      <c r="AB151" s="79"/>
+      <c r="AC151" s="79"/>
+      <c r="AD151" s="79"/>
+      <c r="AE151" s="79"/>
+      <c r="AF151" s="79"/>
+      <c r="AG151" s="79"/>
+      <c r="AH151" s="79"/>
+      <c r="AI151" s="79"/>
+      <c r="AJ151" s="79"/>
+      <c r="AK151" s="79"/>
+      <c r="AL151" s="79"/>
+      <c r="AM151" s="79"/>
+      <c r="AN151" s="79"/>
+      <c r="AO151" s="79"/>
+      <c r="AP151" s="79"/>
+      <c r="AQ151" s="79"/>
+      <c r="AR151" s="79"/>
+      <c r="AS151" s="79"/>
+      <c r="AT151" s="80"/>
+      <c r="AV151" s="163"/>
+      <c r="AW151" s="79"/>
+      <c r="AX151" s="79"/>
+      <c r="AY151" s="79"/>
+      <c r="AZ151" s="79"/>
+      <c r="BA151" s="79"/>
+      <c r="BB151" s="79"/>
+      <c r="BC151" s="79"/>
+      <c r="BD151" s="79"/>
+      <c r="BE151" s="79"/>
+      <c r="BF151" s="79"/>
+      <c r="BG151" s="79"/>
+      <c r="BH151" s="79"/>
+      <c r="BI151" s="79"/>
+      <c r="BJ151" s="79"/>
+      <c r="BK151" s="80"/>
+      <c r="BM151" s="163"/>
+      <c r="BN151" s="79"/>
+      <c r="BO151" s="79"/>
+      <c r="BP151" s="79"/>
+      <c r="BQ151" s="79"/>
+      <c r="BR151" s="79"/>
+      <c r="BS151" s="79"/>
+      <c r="BT151" s="79"/>
+      <c r="BU151" s="79"/>
+      <c r="BV151" s="79"/>
+      <c r="BW151" s="79"/>
+      <c r="BX151" s="79"/>
+      <c r="BY151" s="79"/>
+      <c r="BZ151" s="79"/>
+      <c r="CA151" s="80"/>
+    </row>
+    <row r="152" spans="1:79">
+      <c r="Q152" s="164"/>
+      <c r="R152" s="81"/>
+      <c r="S152" s="81"/>
+      <c r="T152" s="81"/>
+      <c r="U152" s="81"/>
+      <c r="V152" s="81"/>
+      <c r="W152" s="81"/>
+      <c r="X152" s="81"/>
+      <c r="Y152" s="81"/>
+      <c r="Z152" s="81"/>
+      <c r="AA152" s="81"/>
+      <c r="AB152" s="81"/>
+      <c r="AC152" s="81"/>
+      <c r="AD152" s="81"/>
+      <c r="AE152" s="81"/>
+      <c r="AF152" s="81"/>
+      <c r="AG152" s="81"/>
+      <c r="AH152" s="81"/>
+      <c r="AI152" s="81"/>
+      <c r="AJ152" s="81"/>
+      <c r="AK152" s="81"/>
+      <c r="AL152" s="81"/>
+      <c r="AM152" s="81"/>
+      <c r="AN152" s="81"/>
+      <c r="AO152" s="81"/>
+      <c r="AP152" s="81"/>
+      <c r="AQ152" s="81"/>
+      <c r="AR152" s="81"/>
+      <c r="AS152" s="81"/>
+      <c r="AT152" s="82"/>
+      <c r="AV152" s="164"/>
+      <c r="AW152" s="81"/>
+      <c r="AX152" s="81"/>
+      <c r="AY152" s="81"/>
+      <c r="AZ152" s="81"/>
+      <c r="BA152" s="81"/>
+      <c r="BB152" s="81"/>
+      <c r="BC152" s="81"/>
+      <c r="BD152" s="81"/>
+      <c r="BE152" s="81"/>
+      <c r="BF152" s="81"/>
+      <c r="BG152" s="81"/>
+      <c r="BH152" s="81"/>
+      <c r="BI152" s="81"/>
+      <c r="BJ152" s="81"/>
+      <c r="BK152" s="82"/>
+      <c r="BM152" s="164"/>
+      <c r="BN152" s="81"/>
+      <c r="BO152" s="81"/>
+      <c r="BP152" s="81"/>
+      <c r="BQ152" s="81"/>
+      <c r="BR152" s="81"/>
+      <c r="BS152" s="81"/>
+      <c r="BT152" s="81"/>
+      <c r="BU152" s="81"/>
+      <c r="BV152" s="81"/>
+      <c r="BW152" s="81"/>
+      <c r="BX152" s="81"/>
+      <c r="BY152" s="81"/>
+      <c r="BZ152" s="81"/>
+      <c r="CA152" s="82"/>
+    </row>
+    <row r="158" spans="1:79">
       <c r="A158" s="29" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="159" spans="1:48">
+    <row r="159" spans="1:79">
       <c r="J159" s="35" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="160" spans="1:48">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="160" spans="1:79">
       <c r="J160" s="60" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="161" spans="10:60">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="161" spans="10:58">
       <c r="J161" s="66" t="s">
         <v>521</v>
       </c>
@@ -26105,7 +26360,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="162" spans="10:60">
+    <row r="162" spans="10:58">
       <c r="J162" s="36" t="s">
         <v>447</v>
       </c>
@@ -26186,7 +26441,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="163" spans="10:60">
+    <row r="163" spans="10:58">
       <c r="J163" s="61" t="s">
         <v>352</v>
       </c>
@@ -26200,7 +26455,7 @@
         <v>525</v>
       </c>
       <c r="N163" s="39"/>
-      <c r="Q163" s="186" t="s">
+      <c r="Q163" s="183" t="s">
         <v>352</v>
       </c>
       <c r="R163" s="32" t="s">
@@ -26284,10 +26539,8 @@
       <c r="BD163" s="3"/>
       <c r="BE163" s="3"/>
       <c r="BF163" s="3"/>
-      <c r="BG163" s="3"/>
-      <c r="BH163" s="3"/>
-    </row>
-    <row r="164" spans="10:60">
+    </row>
+    <row r="164" spans="10:58">
       <c r="J164" s="61" t="s">
         <v>353</v>
       </c>
@@ -26301,7 +26554,7 @@
         <v>528</v>
       </c>
       <c r="N164" s="39"/>
-      <c r="Q164" s="186"/>
+      <c r="Q164" s="183"/>
       <c r="R164" s="32" t="s">
         <v>524</v>
       </c>
@@ -26366,7 +26619,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="165" spans="10:60">
+    <row r="165" spans="10:58">
       <c r="J165" s="61" t="s">
         <v>354</v>
       </c>
@@ -26380,7 +26633,7 @@
         <v>529</v>
       </c>
       <c r="N165" s="39"/>
-      <c r="Q165" s="185" t="s">
+      <c r="Q165" s="182" t="s">
         <v>542</v>
       </c>
       <c r="R165" s="32" t="s">
@@ -26447,7 +26700,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="166" spans="10:60">
+    <row r="166" spans="10:58">
       <c r="J166" s="61" t="s">
         <v>355</v>
       </c>
@@ -26461,7 +26714,7 @@
         <v>530</v>
       </c>
       <c r="N166" s="39"/>
-      <c r="Q166" s="186"/>
+      <c r="Q166" s="183"/>
       <c r="R166" s="32" t="s">
         <v>10</v>
       </c>
@@ -26526,7 +26779,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="167" spans="10:60">
+    <row r="167" spans="10:58">
       <c r="J167" s="61" t="s">
         <v>356</v>
       </c>
@@ -26540,7 +26793,7 @@
         <v>531</v>
       </c>
       <c r="N167" s="39"/>
-      <c r="Q167" s="186" t="s">
+      <c r="Q167" s="183" t="s">
         <v>354</v>
       </c>
       <c r="R167" s="32" t="s">
@@ -26607,7 +26860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="10:60">
+    <row r="168" spans="10:58">
       <c r="J168" s="61" t="s">
         <v>357</v>
       </c>
@@ -26621,7 +26874,7 @@
         <v>532</v>
       </c>
       <c r="N168" s="39"/>
-      <c r="Q168" s="186"/>
+      <c r="Q168" s="183"/>
       <c r="R168" s="32" t="s">
         <v>537</v>
       </c>
@@ -26686,7 +26939,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="169" spans="10:60">
+    <row r="169" spans="10:58">
       <c r="J169" s="61" t="s">
         <v>358</v>
       </c>
@@ -26700,7 +26953,7 @@
         <v>535</v>
       </c>
       <c r="N169" s="39"/>
-      <c r="Q169" s="186" t="s">
+      <c r="Q169" s="183" t="s">
         <v>355</v>
       </c>
       <c r="R169" s="32" t="s">
@@ -26767,7 +27020,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="170" spans="10:60">
+    <row r="170" spans="10:58">
       <c r="J170" s="61" t="s">
         <v>359</v>
       </c>
@@ -26781,7 +27034,7 @@
         <v>536</v>
       </c>
       <c r="N170" s="39"/>
-      <c r="Q170" s="186"/>
+      <c r="Q170" s="183"/>
       <c r="R170" s="32" t="s">
         <v>25</v>
       </c>
@@ -26846,8 +27099,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="10:60">
-      <c r="Q171" s="185" t="s">
+    <row r="171" spans="10:58">
+      <c r="Q171" s="182" t="s">
         <v>543</v>
       </c>
       <c r="R171" s="32" t="s">
@@ -26914,11 +27167,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="172" spans="10:60">
+    <row r="172" spans="10:58">
       <c r="J172" s="60" t="s">
-        <v>590</v>
-      </c>
-      <c r="Q172" s="186"/>
+        <v>575</v>
+      </c>
+      <c r="Q172" s="183"/>
       <c r="R172" s="32" t="s">
         <v>538</v>
       </c>
@@ -26983,7 +27236,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="173" spans="10:60">
+    <row r="173" spans="10:58">
       <c r="J173" s="36" t="s">
         <v>447</v>
       </c>
@@ -26996,7 +27249,7 @@
       <c r="M173" s="36" t="s">
         <v>449</v>
       </c>
-      <c r="Q173" s="185" t="s">
+      <c r="Q173" s="182" t="s">
         <v>544</v>
       </c>
       <c r="R173" s="32" t="s">
@@ -27063,7 +27316,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="174" spans="10:60">
+    <row r="174" spans="10:58">
       <c r="J174" s="70" t="s">
         <v>546</v>
       </c>
@@ -27076,7 +27329,7 @@
       <c r="M174" s="37" t="s">
         <v>553</v>
       </c>
-      <c r="Q174" s="186"/>
+      <c r="Q174" s="183"/>
       <c r="R174" s="32" t="s">
         <v>539</v>
       </c>
@@ -27141,7 +27394,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="175" spans="10:60">
+    <row r="175" spans="10:58">
       <c r="J175" s="70" t="s">
         <v>547</v>
       </c>
@@ -27154,7 +27407,7 @@
       <c r="M175" s="37" t="s">
         <v>554</v>
       </c>
-      <c r="Q175" s="185" t="s">
+      <c r="Q175" s="182" t="s">
         <v>323</v>
       </c>
       <c r="R175" s="32" t="s">
@@ -27241,7 +27494,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="176" spans="10:60">
+    <row r="176" spans="10:58">
       <c r="J176" s="70" t="s">
         <v>548</v>
       </c>
@@ -27254,7 +27507,7 @@
       <c r="M176" s="37" t="s">
         <v>555</v>
       </c>
-      <c r="Q176" s="186"/>
+      <c r="Q176" s="183"/>
       <c r="R176" s="32" t="s">
         <v>540</v>
       </c>
@@ -27332,7 +27585,7 @@
       <c r="M177" s="37" t="s">
         <v>556</v>
       </c>
-      <c r="Q177" s="185" t="s">
+      <c r="Q177" s="182" t="s">
         <v>324</v>
       </c>
       <c r="R177" s="32" t="s">
@@ -27432,7 +27685,7 @@
       <c r="M178" s="37" t="s">
         <v>557</v>
       </c>
-      <c r="Q178" s="186"/>
+      <c r="Q178" s="183"/>
       <c r="R178" s="32" t="s">
         <v>541</v>
       </c>
@@ -27552,7 +27805,7 @@
         <v>564</v>
       </c>
       <c r="M182" s="37" t="s">
-        <v>613</v>
+        <v>595</v>
       </c>
       <c r="Q182" s="32" t="s">
         <v>524</v>
@@ -27589,7 +27842,7 @@
         <v>564</v>
       </c>
       <c r="M183" s="37" t="s">
-        <v>595</v>
+        <v>577</v>
       </c>
       <c r="Q183" s="32" t="s">
         <v>559</v>
@@ -27621,7 +27874,7 @@
         <v>564</v>
       </c>
       <c r="M184" s="37" t="s">
-        <v>596</v>
+        <v>578</v>
       </c>
     </row>
     <row r="185" spans="10:38">
@@ -27635,7 +27888,7 @@
         <v>564</v>
       </c>
       <c r="M185" s="37" t="s">
-        <v>597</v>
+        <v>579</v>
       </c>
     </row>
     <row r="186" spans="10:38">
@@ -27649,7 +27902,7 @@
         <v>564</v>
       </c>
       <c r="M186" s="37" t="s">
-        <v>598</v>
+        <v>580</v>
       </c>
     </row>
     <row r="187" spans="10:38">
@@ -27663,7 +27916,7 @@
         <v>564</v>
       </c>
       <c r="M187" s="37" t="s">
-        <v>599</v>
+        <v>581</v>
       </c>
     </row>
     <row r="188" spans="10:38">
@@ -27677,7 +27930,7 @@
         <v>564</v>
       </c>
       <c r="M188" s="37" t="s">
-        <v>600</v>
+        <v>582</v>
       </c>
     </row>
     <row r="189" spans="10:38">
@@ -27691,7 +27944,7 @@
         <v>566</v>
       </c>
       <c r="M189" s="37" t="s">
-        <v>601</v>
+        <v>583</v>
       </c>
     </row>
     <row r="190" spans="10:38">
@@ -27705,493 +27958,493 @@
         <v>565</v>
       </c>
       <c r="M190" s="37" t="s">
-        <v>602</v>
+        <v>584</v>
       </c>
     </row>
     <row r="192" spans="10:38">
-      <c r="J192" s="168" t="s">
-        <v>656</v>
+      <c r="J192" s="155" t="s">
+        <v>638</v>
       </c>
     </row>
     <row r="193" spans="10:16">
-      <c r="J193" s="168" t="s">
-        <v>657</v>
+      <c r="J193" s="155" t="s">
+        <v>639</v>
       </c>
     </row>
     <row r="194" spans="10:16">
-      <c r="J194" s="169" t="s">
-        <v>658</v>
+      <c r="J194" s="156" t="s">
+        <v>640</v>
       </c>
     </row>
     <row r="195" spans="10:16">
-      <c r="J195" s="169" t="s">
-        <v>659</v>
+      <c r="J195" s="156" t="s">
+        <v>641</v>
       </c>
     </row>
     <row r="196" spans="10:16">
-      <c r="J196" s="174" t="s">
-        <v>669</v>
-      </c>
-      <c r="K196" s="86"/>
-      <c r="L196" s="86"/>
-      <c r="M196" s="86"/>
-      <c r="N196" s="86"/>
-      <c r="O196" s="86"/>
-      <c r="P196" s="87"/>
+      <c r="J196" s="161" t="s">
+        <v>649</v>
+      </c>
+      <c r="K196" s="77"/>
+      <c r="L196" s="77"/>
+      <c r="M196" s="77"/>
+      <c r="N196" s="77"/>
+      <c r="O196" s="77"/>
+      <c r="P196" s="78"/>
     </row>
     <row r="197" spans="10:16">
-      <c r="J197" s="170"/>
-      <c r="K197" s="88"/>
-      <c r="L197" s="88"/>
-      <c r="M197" s="88"/>
-      <c r="N197" s="88"/>
-      <c r="O197" s="88"/>
-      <c r="P197" s="89"/>
+      <c r="J197" s="157"/>
+      <c r="K197" s="79"/>
+      <c r="L197" s="79"/>
+      <c r="M197" s="79"/>
+      <c r="N197" s="79"/>
+      <c r="O197" s="79"/>
+      <c r="P197" s="80"/>
     </row>
     <row r="198" spans="10:16">
-      <c r="J198" s="170"/>
-      <c r="K198" s="88"/>
-      <c r="L198" s="88"/>
-      <c r="M198" s="88"/>
-      <c r="N198" s="88"/>
-      <c r="O198" s="88"/>
-      <c r="P198" s="89"/>
+      <c r="J198" s="157"/>
+      <c r="K198" s="79"/>
+      <c r="L198" s="79"/>
+      <c r="M198" s="79"/>
+      <c r="N198" s="79"/>
+      <c r="O198" s="79"/>
+      <c r="P198" s="80"/>
     </row>
     <row r="199" spans="10:16">
-      <c r="J199" s="170"/>
-      <c r="K199" s="88"/>
-      <c r="L199" s="88"/>
-      <c r="M199" s="88"/>
-      <c r="N199" s="88"/>
-      <c r="O199" s="88"/>
-      <c r="P199" s="89"/>
+      <c r="J199" s="157"/>
+      <c r="K199" s="79"/>
+      <c r="L199" s="79"/>
+      <c r="M199" s="79"/>
+      <c r="N199" s="79"/>
+      <c r="O199" s="79"/>
+      <c r="P199" s="80"/>
     </row>
     <row r="200" spans="10:16">
-      <c r="J200" s="170"/>
-      <c r="K200" s="88"/>
-      <c r="L200" s="88"/>
-      <c r="M200" s="88"/>
-      <c r="N200" s="88"/>
-      <c r="O200" s="88"/>
-      <c r="P200" s="89"/>
+      <c r="J200" s="157"/>
+      <c r="K200" s="79"/>
+      <c r="L200" s="79"/>
+      <c r="M200" s="79"/>
+      <c r="N200" s="79"/>
+      <c r="O200" s="79"/>
+      <c r="P200" s="80"/>
     </row>
     <row r="201" spans="10:16">
-      <c r="J201" s="170"/>
-      <c r="K201" s="88"/>
-      <c r="L201" s="88"/>
-      <c r="M201" s="88" t="s">
-        <v>660</v>
-      </c>
-      <c r="N201" s="88"/>
-      <c r="O201" s="88"/>
-      <c r="P201" s="89"/>
+      <c r="J201" s="157"/>
+      <c r="K201" s="79"/>
+      <c r="L201" s="79"/>
+      <c r="M201" s="79" t="s">
+        <v>642</v>
+      </c>
+      <c r="N201" s="79"/>
+      <c r="O201" s="79"/>
+      <c r="P201" s="80"/>
     </row>
     <row r="202" spans="10:16">
-      <c r="J202" s="170"/>
-      <c r="K202" s="88"/>
-      <c r="L202" s="88"/>
-      <c r="M202" s="88" t="s">
-        <v>661</v>
-      </c>
-      <c r="N202" s="88"/>
-      <c r="O202" s="88"/>
-      <c r="P202" s="89"/>
+      <c r="J202" s="157"/>
+      <c r="K202" s="79"/>
+      <c r="L202" s="79"/>
+      <c r="M202" s="79" t="s">
+        <v>643</v>
+      </c>
+      <c r="N202" s="79"/>
+      <c r="O202" s="79"/>
+      <c r="P202" s="80"/>
     </row>
     <row r="203" spans="10:16">
-      <c r="J203" s="170"/>
-      <c r="K203" s="88"/>
-      <c r="L203" s="88"/>
-      <c r="M203" s="88" t="s">
-        <v>662</v>
-      </c>
-      <c r="N203" s="88"/>
-      <c r="O203" s="88"/>
-      <c r="P203" s="89"/>
+      <c r="J203" s="157"/>
+      <c r="K203" s="79"/>
+      <c r="L203" s="79"/>
+      <c r="M203" s="79" t="s">
+        <v>644</v>
+      </c>
+      <c r="N203" s="79"/>
+      <c r="O203" s="79"/>
+      <c r="P203" s="80"/>
     </row>
     <row r="204" spans="10:16">
-      <c r="J204" s="170"/>
-      <c r="K204" s="88"/>
-      <c r="L204" s="88"/>
-      <c r="M204" s="88"/>
-      <c r="N204" s="88"/>
-      <c r="O204" s="88"/>
-      <c r="P204" s="89"/>
+      <c r="J204" s="157"/>
+      <c r="K204" s="79"/>
+      <c r="L204" s="79"/>
+      <c r="M204" s="79"/>
+      <c r="N204" s="79"/>
+      <c r="O204" s="79"/>
+      <c r="P204" s="80"/>
     </row>
     <row r="205" spans="10:16">
-      <c r="J205" s="170"/>
-      <c r="K205" s="88"/>
-      <c r="L205" s="88"/>
-      <c r="M205" s="171" t="s">
-        <v>663</v>
-      </c>
-      <c r="N205" s="88"/>
-      <c r="O205" s="88"/>
-      <c r="P205" s="89"/>
-    </row>
-    <row r="206" spans="10:16" ht="34">
-      <c r="J206" s="170"/>
-      <c r="K206" s="88"/>
-      <c r="L206" s="88"/>
-      <c r="M206" s="173" t="s">
-        <v>664</v>
-      </c>
-      <c r="N206" s="88"/>
-      <c r="O206" s="88"/>
-      <c r="P206" s="89"/>
+      <c r="J205" s="157"/>
+      <c r="K205" s="79"/>
+      <c r="L205" s="79"/>
+      <c r="M205" s="158" t="s">
+        <v>645</v>
+      </c>
+      <c r="N205" s="79"/>
+      <c r="O205" s="79"/>
+      <c r="P205" s="80"/>
+    </row>
+    <row r="206" spans="10:16" ht="33.75">
+      <c r="J206" s="157"/>
+      <c r="K206" s="79"/>
+      <c r="L206" s="79"/>
+      <c r="M206" s="160" t="s">
+        <v>646</v>
+      </c>
+      <c r="N206" s="79"/>
+      <c r="O206" s="79"/>
+      <c r="P206" s="80"/>
     </row>
     <row r="207" spans="10:16">
-      <c r="J207" s="170"/>
-      <c r="K207" s="88"/>
-      <c r="L207" s="88"/>
-      <c r="M207" s="88"/>
-      <c r="N207" s="88"/>
-      <c r="O207" s="88"/>
-      <c r="P207" s="89"/>
+      <c r="J207" s="157"/>
+      <c r="K207" s="79"/>
+      <c r="L207" s="79"/>
+      <c r="M207" s="79"/>
+      <c r="N207" s="79"/>
+      <c r="O207" s="79"/>
+      <c r="P207" s="80"/>
     </row>
     <row r="208" spans="10:16">
-      <c r="J208" s="170"/>
-      <c r="K208" s="88"/>
-      <c r="L208" s="88"/>
-      <c r="M208" s="88"/>
-      <c r="N208" s="88"/>
-      <c r="O208" s="88"/>
-      <c r="P208" s="89"/>
+      <c r="J208" s="157"/>
+      <c r="K208" s="79"/>
+      <c r="L208" s="79"/>
+      <c r="M208" s="79"/>
+      <c r="N208" s="79"/>
+      <c r="O208" s="79"/>
+      <c r="P208" s="80"/>
     </row>
     <row r="209" spans="10:16">
-      <c r="J209" s="170"/>
-      <c r="K209" s="88"/>
-      <c r="L209" s="88"/>
-      <c r="M209" s="88"/>
-      <c r="N209" s="88"/>
-      <c r="O209" s="88"/>
-      <c r="P209" s="89"/>
+      <c r="J209" s="157"/>
+      <c r="K209" s="79"/>
+      <c r="L209" s="79"/>
+      <c r="M209" s="79"/>
+      <c r="N209" s="79"/>
+      <c r="O209" s="79"/>
+      <c r="P209" s="80"/>
     </row>
     <row r="210" spans="10:16">
-      <c r="J210" s="170"/>
-      <c r="K210" s="88"/>
-      <c r="L210" s="88"/>
-      <c r="M210" s="88"/>
-      <c r="N210" s="88"/>
-      <c r="O210" s="88"/>
-      <c r="P210" s="89"/>
+      <c r="J210" s="157"/>
+      <c r="K210" s="79"/>
+      <c r="L210" s="79"/>
+      <c r="M210" s="79"/>
+      <c r="N210" s="79"/>
+      <c r="O210" s="79"/>
+      <c r="P210" s="80"/>
     </row>
     <row r="211" spans="10:16">
-      <c r="J211" s="172"/>
-      <c r="K211" s="90"/>
-      <c r="L211" s="90"/>
-      <c r="M211" s="90"/>
-      <c r="N211" s="90"/>
-      <c r="O211" s="90"/>
-      <c r="P211" s="91"/>
+      <c r="J211" s="159"/>
+      <c r="K211" s="81"/>
+      <c r="L211" s="81"/>
+      <c r="M211" s="81"/>
+      <c r="N211" s="81"/>
+      <c r="O211" s="81"/>
+      <c r="P211" s="82"/>
     </row>
     <row r="212" spans="10:16">
       <c r="J212" s="60"/>
     </row>
     <row r="213" spans="10:16">
-      <c r="J213" s="174" t="s">
-        <v>672</v>
-      </c>
-      <c r="K213" s="86"/>
-      <c r="L213" s="86"/>
-      <c r="M213" s="86"/>
-      <c r="N213" s="86"/>
-      <c r="O213" s="86"/>
-      <c r="P213" s="87"/>
+      <c r="J213" s="161" t="s">
+        <v>652</v>
+      </c>
+      <c r="K213" s="77"/>
+      <c r="L213" s="77"/>
+      <c r="M213" s="77"/>
+      <c r="N213" s="77"/>
+      <c r="O213" s="77"/>
+      <c r="P213" s="78"/>
     </row>
     <row r="214" spans="10:16">
-      <c r="J214" s="170"/>
-      <c r="K214" s="88"/>
-      <c r="L214" s="88"/>
-      <c r="M214" s="88"/>
-      <c r="N214" s="88"/>
-      <c r="O214" s="88"/>
-      <c r="P214" s="89"/>
+      <c r="J214" s="157"/>
+      <c r="K214" s="79"/>
+      <c r="L214" s="79"/>
+      <c r="M214" s="79"/>
+      <c r="N214" s="79"/>
+      <c r="O214" s="79"/>
+      <c r="P214" s="80"/>
     </row>
     <row r="215" spans="10:16">
-      <c r="J215" s="170"/>
-      <c r="K215" s="88"/>
-      <c r="L215" s="88"/>
-      <c r="M215" s="88"/>
-      <c r="N215" s="88"/>
-      <c r="O215" s="88"/>
-      <c r="P215" s="89"/>
+      <c r="J215" s="157"/>
+      <c r="K215" s="79"/>
+      <c r="L215" s="79"/>
+      <c r="M215" s="79"/>
+      <c r="N215" s="79"/>
+      <c r="O215" s="79"/>
+      <c r="P215" s="80"/>
     </row>
     <row r="216" spans="10:16">
-      <c r="J216" s="170"/>
-      <c r="K216" s="88"/>
-      <c r="L216" s="88"/>
-      <c r="M216" s="88"/>
-      <c r="N216" s="88"/>
-      <c r="O216" s="88"/>
-      <c r="P216" s="89"/>
+      <c r="J216" s="157"/>
+      <c r="K216" s="79"/>
+      <c r="L216" s="79"/>
+      <c r="M216" s="79"/>
+      <c r="N216" s="79"/>
+      <c r="O216" s="79"/>
+      <c r="P216" s="80"/>
     </row>
     <row r="217" spans="10:16">
-      <c r="J217" s="170"/>
-      <c r="K217" s="88"/>
-      <c r="L217" s="88"/>
-      <c r="N217" s="88"/>
-      <c r="O217" s="88"/>
-      <c r="P217" s="89"/>
+      <c r="J217" s="157"/>
+      <c r="K217" s="79"/>
+      <c r="L217" s="79"/>
+      <c r="N217" s="79"/>
+      <c r="O217" s="79"/>
+      <c r="P217" s="80"/>
     </row>
     <row r="218" spans="10:16">
-      <c r="J218" s="170"/>
-      <c r="K218" s="88"/>
-      <c r="L218" s="88"/>
-      <c r="M218" s="88" t="s">
-        <v>665</v>
-      </c>
-      <c r="N218" s="88"/>
-      <c r="O218" s="88"/>
-      <c r="P218" s="89"/>
+      <c r="J218" s="157"/>
+      <c r="K218" s="79"/>
+      <c r="L218" s="79"/>
+      <c r="M218" s="79" t="s">
+        <v>647</v>
+      </c>
+      <c r="N218" s="79"/>
+      <c r="O218" s="79"/>
+      <c r="P218" s="80"/>
     </row>
     <row r="219" spans="10:16">
-      <c r="J219" s="170"/>
-      <c r="K219" s="88"/>
-      <c r="L219" s="88"/>
-      <c r="M219" s="88" t="s">
-        <v>667</v>
-      </c>
-      <c r="N219" s="88"/>
-      <c r="O219" s="88"/>
-      <c r="P219" s="89"/>
+      <c r="J219" s="157"/>
+      <c r="K219" s="79"/>
+      <c r="L219" s="79"/>
+      <c r="M219" s="79" t="s">
+        <v>674</v>
+      </c>
+      <c r="N219" s="79"/>
+      <c r="O219" s="79"/>
+      <c r="P219" s="80"/>
     </row>
     <row r="220" spans="10:16">
-      <c r="J220" s="170"/>
-      <c r="K220" s="88"/>
-      <c r="L220" s="88"/>
-      <c r="M220" s="88"/>
-      <c r="N220" s="88"/>
-      <c r="O220" s="88"/>
-      <c r="P220" s="89"/>
+      <c r="J220" s="157"/>
+      <c r="K220" s="79"/>
+      <c r="L220" s="79"/>
+      <c r="M220" s="79"/>
+      <c r="N220" s="79"/>
+      <c r="O220" s="79"/>
+      <c r="P220" s="80"/>
     </row>
     <row r="221" spans="10:16">
-      <c r="J221" s="170"/>
-      <c r="K221" s="88"/>
-      <c r="L221" s="88"/>
-      <c r="M221" s="88" t="s">
-        <v>666</v>
-      </c>
-      <c r="N221" s="88"/>
-      <c r="O221" s="88"/>
-      <c r="P221" s="89"/>
+      <c r="J221" s="157"/>
+      <c r="K221" s="79"/>
+      <c r="L221" s="79"/>
+      <c r="M221" s="79" t="s">
+        <v>675</v>
+      </c>
+      <c r="N221" s="79"/>
+      <c r="O221" s="79"/>
+      <c r="P221" s="80"/>
     </row>
     <row r="222" spans="10:16">
-      <c r="J222" s="170"/>
-      <c r="K222" s="88"/>
-      <c r="L222" s="88"/>
-      <c r="M222" s="88" t="s">
-        <v>668</v>
-      </c>
-      <c r="N222" s="88"/>
-      <c r="O222" s="88"/>
-      <c r="P222" s="89"/>
+      <c r="J222" s="157"/>
+      <c r="K222" s="79"/>
+      <c r="L222" s="79"/>
+      <c r="M222" s="79" t="s">
+        <v>648</v>
+      </c>
+      <c r="N222" s="79"/>
+      <c r="O222" s="79"/>
+      <c r="P222" s="80"/>
     </row>
     <row r="223" spans="10:16">
-      <c r="J223" s="170"/>
-      <c r="K223" s="88"/>
-      <c r="L223" s="88"/>
-      <c r="M223" s="173"/>
-      <c r="N223" s="88"/>
-      <c r="O223" s="88"/>
-      <c r="P223" s="89"/>
+      <c r="J223" s="157"/>
+      <c r="K223" s="79"/>
+      <c r="L223" s="79"/>
+      <c r="M223" s="160"/>
+      <c r="N223" s="79"/>
+      <c r="O223" s="79"/>
+      <c r="P223" s="80"/>
     </row>
     <row r="224" spans="10:16">
-      <c r="J224" s="170"/>
-      <c r="K224" s="88"/>
-      <c r="L224" s="88"/>
-      <c r="M224" s="88"/>
-      <c r="N224" s="88"/>
-      <c r="O224" s="88"/>
-      <c r="P224" s="89"/>
+      <c r="J224" s="157"/>
+      <c r="K224" s="79"/>
+      <c r="L224" s="79"/>
+      <c r="M224" s="79"/>
+      <c r="N224" s="79"/>
+      <c r="O224" s="79"/>
+      <c r="P224" s="80"/>
     </row>
     <row r="225" spans="10:16">
-      <c r="J225" s="170"/>
-      <c r="K225" s="88"/>
-      <c r="L225" s="88"/>
-      <c r="M225" s="88"/>
-      <c r="N225" s="88"/>
-      <c r="O225" s="88"/>
-      <c r="P225" s="89"/>
+      <c r="J225" s="157"/>
+      <c r="K225" s="79"/>
+      <c r="L225" s="79"/>
+      <c r="M225" s="79"/>
+      <c r="N225" s="79"/>
+      <c r="O225" s="79"/>
+      <c r="P225" s="80"/>
     </row>
     <row r="226" spans="10:16">
-      <c r="J226" s="170"/>
-      <c r="K226" s="88"/>
-      <c r="L226" s="88"/>
-      <c r="M226" s="88"/>
-      <c r="N226" s="88"/>
-      <c r="O226" s="88"/>
-      <c r="P226" s="89"/>
+      <c r="J226" s="157"/>
+      <c r="K226" s="79"/>
+      <c r="L226" s="79"/>
+      <c r="M226" s="79"/>
+      <c r="N226" s="79"/>
+      <c r="O226" s="79"/>
+      <c r="P226" s="80"/>
     </row>
     <row r="227" spans="10:16">
-      <c r="J227" s="170"/>
-      <c r="K227" s="88"/>
-      <c r="L227" s="88"/>
-      <c r="M227" s="88"/>
-      <c r="N227" s="88"/>
-      <c r="O227" s="88"/>
-      <c r="P227" s="89"/>
+      <c r="J227" s="157"/>
+      <c r="K227" s="79"/>
+      <c r="L227" s="79"/>
+      <c r="M227" s="79"/>
+      <c r="N227" s="79"/>
+      <c r="O227" s="79"/>
+      <c r="P227" s="80"/>
     </row>
     <row r="228" spans="10:16">
-      <c r="J228" s="172"/>
-      <c r="K228" s="90"/>
-      <c r="L228" s="90"/>
-      <c r="M228" s="90"/>
-      <c r="N228" s="90"/>
-      <c r="O228" s="90"/>
-      <c r="P228" s="91"/>
+      <c r="J228" s="159"/>
+      <c r="K228" s="81"/>
+      <c r="L228" s="81"/>
+      <c r="M228" s="81"/>
+      <c r="N228" s="81"/>
+      <c r="O228" s="81"/>
+      <c r="P228" s="82"/>
     </row>
     <row r="229" spans="10:16">
       <c r="J229" s="60"/>
     </row>
     <row r="230" spans="10:16">
-      <c r="J230" s="174" t="s">
-        <v>676</v>
-      </c>
-      <c r="K230" s="86"/>
-      <c r="L230" s="86"/>
-      <c r="M230" s="86"/>
-      <c r="N230" s="86"/>
-      <c r="O230" s="86"/>
-      <c r="P230" s="87"/>
+      <c r="J230" s="161" t="s">
+        <v>656</v>
+      </c>
+      <c r="K230" s="77"/>
+      <c r="L230" s="77"/>
+      <c r="M230" s="77"/>
+      <c r="N230" s="77"/>
+      <c r="O230" s="77"/>
+      <c r="P230" s="78"/>
     </row>
     <row r="231" spans="10:16">
-      <c r="J231" s="170"/>
-      <c r="K231" s="88"/>
-      <c r="L231" s="88"/>
-      <c r="M231" s="88"/>
-      <c r="N231" s="88"/>
-      <c r="O231" s="88"/>
-      <c r="P231" s="89"/>
+      <c r="J231" s="157"/>
+      <c r="K231" s="79"/>
+      <c r="L231" s="79"/>
+      <c r="M231" s="79"/>
+      <c r="N231" s="79"/>
+      <c r="O231" s="79"/>
+      <c r="P231" s="80"/>
     </row>
     <row r="232" spans="10:16">
-      <c r="J232" s="170"/>
-      <c r="K232" s="88"/>
-      <c r="L232" s="88"/>
-      <c r="M232" s="88"/>
-      <c r="N232" s="88"/>
-      <c r="O232" s="88"/>
-      <c r="P232" s="89"/>
+      <c r="J232" s="157"/>
+      <c r="K232" s="79"/>
+      <c r="L232" s="79"/>
+      <c r="M232" s="79"/>
+      <c r="N232" s="79"/>
+      <c r="O232" s="79"/>
+      <c r="P232" s="80"/>
     </row>
     <row r="233" spans="10:16">
-      <c r="J233" s="170"/>
-      <c r="K233" s="88"/>
-      <c r="L233" s="88"/>
-      <c r="M233" s="88"/>
-      <c r="N233" s="88"/>
-      <c r="O233" s="88"/>
-      <c r="P233" s="89"/>
+      <c r="J233" s="157"/>
+      <c r="K233" s="79"/>
+      <c r="L233" s="79"/>
+      <c r="M233" s="79"/>
+      <c r="N233" s="79"/>
+      <c r="O233" s="79"/>
+      <c r="P233" s="80"/>
     </row>
     <row r="234" spans="10:16">
-      <c r="J234" s="170"/>
-      <c r="K234" s="88"/>
-      <c r="L234" s="88"/>
-      <c r="M234" s="88"/>
-      <c r="N234" s="88"/>
-      <c r="O234" s="88"/>
-      <c r="P234" s="89"/>
+      <c r="J234" s="157"/>
+      <c r="K234" s="79"/>
+      <c r="L234" s="79"/>
+      <c r="M234" s="79"/>
+      <c r="N234" s="79"/>
+      <c r="O234" s="79"/>
+      <c r="P234" s="80"/>
     </row>
     <row r="235" spans="10:16">
-      <c r="J235" s="170"/>
-      <c r="K235" s="88"/>
-      <c r="L235" s="88"/>
-      <c r="M235" s="88"/>
-      <c r="N235" s="88"/>
-      <c r="O235" s="88"/>
-      <c r="P235" s="89"/>
+      <c r="J235" s="157"/>
+      <c r="K235" s="79"/>
+      <c r="L235" s="79"/>
+      <c r="M235" s="79"/>
+      <c r="N235" s="79"/>
+      <c r="O235" s="79"/>
+      <c r="P235" s="80"/>
     </row>
     <row r="236" spans="10:16">
-      <c r="J236" s="170"/>
-      <c r="K236" s="88"/>
-      <c r="L236" s="88"/>
-      <c r="M236" s="88"/>
-      <c r="N236" s="88"/>
-      <c r="O236" s="88"/>
-      <c r="P236" s="89"/>
+      <c r="J236" s="157"/>
+      <c r="K236" s="79"/>
+      <c r="L236" s="79"/>
+      <c r="M236" s="79"/>
+      <c r="N236" s="79"/>
+      <c r="O236" s="79"/>
+      <c r="P236" s="80"/>
     </row>
     <row r="237" spans="10:16">
-      <c r="J237" s="170"/>
-      <c r="K237" s="88"/>
-      <c r="L237" s="88"/>
-      <c r="M237" s="88" t="s">
-        <v>670</v>
-      </c>
-      <c r="N237" s="88"/>
-      <c r="O237" s="88"/>
-      <c r="P237" s="89"/>
+      <c r="J237" s="157"/>
+      <c r="K237" s="79"/>
+      <c r="L237" s="79"/>
+      <c r="M237" s="79" t="s">
+        <v>650</v>
+      </c>
+      <c r="N237" s="79"/>
+      <c r="O237" s="79"/>
+      <c r="P237" s="80"/>
     </row>
     <row r="238" spans="10:16">
-      <c r="J238" s="170"/>
-      <c r="K238" s="88"/>
-      <c r="L238" s="88"/>
-      <c r="M238" s="88" t="s">
-        <v>671</v>
-      </c>
-      <c r="N238" s="88"/>
-      <c r="O238" s="88"/>
-      <c r="P238" s="89"/>
+      <c r="J238" s="157"/>
+      <c r="K238" s="79"/>
+      <c r="L238" s="79"/>
+      <c r="M238" s="79" t="s">
+        <v>651</v>
+      </c>
+      <c r="N238" s="79"/>
+      <c r="O238" s="79"/>
+      <c r="P238" s="80"/>
     </row>
     <row r="239" spans="10:16">
-      <c r="J239" s="170"/>
-      <c r="K239" s="88"/>
-      <c r="L239" s="88"/>
-      <c r="M239" s="88"/>
-      <c r="N239" s="88"/>
-      <c r="O239" s="88"/>
-      <c r="P239" s="89"/>
+      <c r="J239" s="157"/>
+      <c r="K239" s="79"/>
+      <c r="L239" s="79"/>
+      <c r="M239" s="79"/>
+      <c r="N239" s="79"/>
+      <c r="O239" s="79"/>
+      <c r="P239" s="80"/>
     </row>
     <row r="240" spans="10:16">
-      <c r="J240" s="170"/>
-      <c r="K240" s="88"/>
-      <c r="L240" s="88"/>
-      <c r="M240" s="173"/>
-      <c r="N240" s="88"/>
-      <c r="O240" s="88"/>
-      <c r="P240" s="89"/>
+      <c r="J240" s="157"/>
+      <c r="K240" s="79"/>
+      <c r="L240" s="79"/>
+      <c r="M240" s="160"/>
+      <c r="N240" s="79"/>
+      <c r="O240" s="79"/>
+      <c r="P240" s="80"/>
     </row>
     <row r="241" spans="10:16">
-      <c r="J241" s="170"/>
-      <c r="K241" s="88"/>
-      <c r="L241" s="88"/>
-      <c r="M241" s="88"/>
-      <c r="N241" s="88"/>
-      <c r="O241" s="88"/>
-      <c r="P241" s="89"/>
+      <c r="J241" s="157"/>
+      <c r="K241" s="79"/>
+      <c r="L241" s="79"/>
+      <c r="M241" s="79"/>
+      <c r="N241" s="79"/>
+      <c r="O241" s="79"/>
+      <c r="P241" s="80"/>
     </row>
     <row r="242" spans="10:16">
-      <c r="J242" s="170"/>
-      <c r="K242" s="88"/>
-      <c r="L242" s="88"/>
-      <c r="M242" s="88"/>
-      <c r="N242" s="88"/>
-      <c r="O242" s="88"/>
-      <c r="P242" s="89"/>
+      <c r="J242" s="157"/>
+      <c r="K242" s="79"/>
+      <c r="L242" s="79"/>
+      <c r="M242" s="79"/>
+      <c r="N242" s="79"/>
+      <c r="O242" s="79"/>
+      <c r="P242" s="80"/>
     </row>
     <row r="243" spans="10:16">
-      <c r="J243" s="170"/>
-      <c r="K243" s="88"/>
-      <c r="L243" s="88"/>
-      <c r="M243" s="88"/>
-      <c r="N243" s="88"/>
-      <c r="O243" s="88"/>
-      <c r="P243" s="89"/>
+      <c r="J243" s="157"/>
+      <c r="K243" s="79"/>
+      <c r="L243" s="79"/>
+      <c r="M243" s="79"/>
+      <c r="N243" s="79"/>
+      <c r="O243" s="79"/>
+      <c r="P243" s="80"/>
     </row>
     <row r="244" spans="10:16">
-      <c r="J244" s="170"/>
-      <c r="K244" s="88"/>
-      <c r="L244" s="88"/>
-      <c r="M244" s="88"/>
-      <c r="N244" s="88"/>
-      <c r="O244" s="88"/>
-      <c r="P244" s="89"/>
+      <c r="J244" s="157"/>
+      <c r="K244" s="79"/>
+      <c r="L244" s="79"/>
+      <c r="M244" s="79"/>
+      <c r="N244" s="79"/>
+      <c r="O244" s="79"/>
+      <c r="P244" s="80"/>
     </row>
     <row r="245" spans="10:16">
-      <c r="J245" s="172"/>
-      <c r="K245" s="90"/>
-      <c r="L245" s="90"/>
-      <c r="M245" s="90"/>
-      <c r="N245" s="90"/>
-      <c r="O245" s="90"/>
-      <c r="P245" s="91"/>
+      <c r="J245" s="159"/>
+      <c r="K245" s="81"/>
+      <c r="L245" s="81"/>
+      <c r="M245" s="81"/>
+      <c r="N245" s="81"/>
+      <c r="O245" s="81"/>
+      <c r="P245" s="82"/>
     </row>
     <row r="246" spans="10:16">
       <c r="J246" s="60"/>
@@ -28219,153 +28472,61 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="B2:N15"/>
+  <dimension ref="B2:M15"/>
   <sheetViews>
-    <sheetView zoomScale="138" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.899999999999999"/>
   <cols>
     <col min="6" max="6" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14">
-      <c r="B2" s="95" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="4" spans="2:14">
-      <c r="D4" s="83"/>
-      <c r="E4" s="84" t="s">
-        <v>575</v>
-      </c>
-      <c r="F4" s="83"/>
-      <c r="H4" s="77"/>
-      <c r="I4" s="78" t="s">
-        <v>570</v>
-      </c>
-      <c r="J4" s="77"/>
-      <c r="L4" s="77"/>
-      <c r="M4" s="78" t="s">
-        <v>572</v>
-      </c>
-      <c r="N4" s="77"/>
-    </row>
-    <row r="5" spans="2:14">
-      <c r="D5" s="85" t="s">
-        <v>574</v>
-      </c>
-      <c r="E5" s="83"/>
-      <c r="F5" s="83"/>
-      <c r="H5" s="81" t="s">
-        <v>579</v>
-      </c>
-      <c r="I5" s="77"/>
-      <c r="J5" s="77"/>
-      <c r="L5" s="96" t="s">
-        <v>592</v>
-      </c>
-      <c r="M5" s="77"/>
-      <c r="N5" s="77"/>
-    </row>
-    <row r="6" spans="2:14">
-      <c r="D6" s="85" t="s">
-        <v>578</v>
-      </c>
-      <c r="E6" s="83"/>
-      <c r="F6" s="83"/>
-      <c r="H6" s="81" t="s">
-        <v>580</v>
-      </c>
-      <c r="I6" s="77"/>
-      <c r="J6" s="77"/>
-      <c r="L6" s="77"/>
-      <c r="M6" s="77"/>
-      <c r="N6" s="77"/>
-    </row>
-    <row r="7" spans="2:14">
-      <c r="D7" s="83"/>
-      <c r="E7" s="83"/>
-      <c r="F7" s="83"/>
-      <c r="H7" s="93" t="s">
-        <v>582</v>
-      </c>
-      <c r="I7" s="77"/>
-      <c r="J7" s="77"/>
-      <c r="L7" s="77"/>
-      <c r="M7" s="77"/>
-      <c r="N7" s="77"/>
-    </row>
-    <row r="9" spans="2:14">
-      <c r="B9" s="187" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="10" spans="2:14">
-      <c r="B10" s="187"/>
-    </row>
-    <row r="12" spans="2:14">
-      <c r="D12" s="83"/>
-      <c r="E12" s="84" t="s">
-        <v>576</v>
-      </c>
-      <c r="F12" s="83"/>
-      <c r="H12" s="79"/>
-      <c r="I12" s="80" t="s">
-        <v>571</v>
-      </c>
-      <c r="J12" s="79"/>
-      <c r="L12" s="77"/>
-      <c r="M12" s="78" t="s">
-        <v>572</v>
-      </c>
-      <c r="N12" s="77"/>
-    </row>
-    <row r="13" spans="2:14">
-      <c r="D13" s="85" t="s">
-        <v>573</v>
-      </c>
-      <c r="E13" s="83"/>
-      <c r="F13" s="83"/>
-      <c r="H13" s="82" t="s">
-        <v>583</v>
-      </c>
-      <c r="I13" s="79"/>
-      <c r="J13" s="79"/>
-      <c r="L13" s="96" t="s">
-        <v>593</v>
-      </c>
-      <c r="M13" s="77"/>
-      <c r="N13" s="77"/>
-    </row>
-    <row r="14" spans="2:14">
-      <c r="D14" s="85" t="s">
-        <v>577</v>
-      </c>
-      <c r="E14" s="83"/>
-      <c r="F14" s="83"/>
-      <c r="H14" s="82" t="s">
-        <v>581</v>
-      </c>
-      <c r="I14" s="79"/>
-      <c r="J14" s="79"/>
-      <c r="L14" s="77"/>
-      <c r="M14" s="77"/>
-      <c r="N14" s="77"/>
-    </row>
-    <row r="15" spans="2:14">
-      <c r="D15" s="83"/>
-      <c r="E15" s="83"/>
-      <c r="F15" s="83"/>
-      <c r="H15" s="94" t="s">
-        <v>582</v>
-      </c>
-      <c r="I15" s="79"/>
-      <c r="J15" s="79"/>
-      <c r="L15" s="77"/>
-      <c r="M15" s="77"/>
-      <c r="N15" s="77"/>
+    <row r="2" spans="2:13">
+      <c r="B2" s="171" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13">
+      <c r="E4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="M4" s="3"/>
+    </row>
+    <row r="5" spans="2:13">
+      <c r="D5" s="167"/>
+      <c r="H5" s="168"/>
+      <c r="L5" s="169"/>
+    </row>
+    <row r="6" spans="2:13">
+      <c r="D6" s="167"/>
+      <c r="H6" s="168"/>
+    </row>
+    <row r="7" spans="2:13">
+      <c r="H7" s="170"/>
+    </row>
+    <row r="9" spans="2:13">
+      <c r="B9" s="184"/>
+    </row>
+    <row r="10" spans="2:13">
+      <c r="B10" s="184"/>
+    </row>
+    <row r="12" spans="2:13">
+      <c r="E12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="2:13">
+      <c r="D13" s="167"/>
+      <c r="H13" s="168"/>
+      <c r="L13" s="169"/>
+    </row>
+    <row r="14" spans="2:13">
+      <c r="D14" s="167"/>
+      <c r="H14" s="168"/>
+    </row>
+    <row r="15" spans="2:13">
+      <c r="H15" s="170"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -28388,12 +28549,12 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.899999999999999"/>
   <cols>
     <col min="1" max="1" width="14.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.58203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.375" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -31227,11 +31388,11 @@
       <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.899999999999999"/>
   <cols>
     <col min="1" max="1" width="14.5" style="31" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.5" style="31" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.33203125" style="31" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.375" style="31" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="31"/>
   </cols>
   <sheetData>
@@ -41266,7 +41427,7 @@
       <selection activeCell="AO2" sqref="AO2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.899999999999999"/>
   <sheetData>
     <row r="1" spans="1:76">
       <c r="A1" s="34" t="s">
@@ -46115,7 +46276,7 @@
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.899999999999999"/>
   <sheetData>
     <row r="1" spans="1:24">
       <c r="A1" s="34" t="s">
